--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <definedName name="ProjectNames">Project[Project]</definedName>
     <definedName name="TSKPRJCodes">ProjectTasks[TaskProjectCode]</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -74,9 +79,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Ashwathy</t>
   </si>
   <si>
     <t>Shareena</t>
@@ -183,16 +185,56 @@
   <si>
     <t>DB Designing</t>
   </si>
+  <si>
+    <t>Sending Data to the site</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>Discussion for ticketing modification</t>
+  </si>
+  <si>
+    <t>Aswathy</t>
+  </si>
+  <si>
+    <t>TKT/Discussion for ticketing modification</t>
+  </si>
+  <si>
+    <t>Decryption</t>
+  </si>
+  <si>
+    <t>SDS/Decryption</t>
+  </si>
+  <si>
+    <t>TKT/Database Analysis from Old Project</t>
+  </si>
+  <si>
+    <t>Replication Tool Modification</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>Solving the issue of repeating icon in tray</t>
+  </si>
+  <si>
+    <t>SDS/Solving the issue of repeating icon in tray</t>
+  </si>
+  <si>
+    <t>TKT/DB Designing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
     <numFmt numFmtId="165" formatCode="dd\/mmm"/>
+    <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +316,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -529,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -619,150 +667,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,11 +681,185 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,76 +878,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -884,7 +894,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -898,8 +908,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -913,7 +922,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -927,7 +936,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -941,7 +950,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -955,7 +964,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -969,22 +978,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="23" formatCode="hh:mm\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -999,7 +994,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1044,7 +1039,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1063,7 +1058,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1082,7 +1077,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1101,7 +1096,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1120,7 +1115,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1135,7 +1130,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1189,7 +1184,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1289,7 +1284,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1321,7 +1316,90 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1374,7 +1452,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1404,37 +1482,46 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1449,22 +1536,11 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1479,22 +1555,11 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1509,22 +1574,11 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1564,25 +1618,33 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1642,22 +1704,11 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1669,35 +1720,51 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="68307200"/>
-        <c:axId val="68329472"/>
+        <c:axId val="-231407920"/>
+        <c:axId val="-231405200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68307200"/>
+        <c:axId val="-231407920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68329472"/>
+        <c:crossAx val="-231405200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68329472"/>
+        <c:axId val="-231405200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68307200"/>
+        <c:crossAx val="-231407920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,6 +1779,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1723,13 +1792,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1739,27 +1820,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ashwathy</c:v>
+                  <c:v>Aswathy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1830,22 +1900,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1916,22 +1975,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2002,22 +2050,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2085,22 +2122,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2168,22 +2194,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2251,22 +2266,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2323,34 +2327,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="68238720"/>
-        <c:axId val="68244608"/>
+        <c:axId val="-231407376"/>
+        <c:axId val="-231406832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68238720"/>
+        <c:axId val="-231407376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68244608"/>
+        <c:crossAx val="-231406832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68244608"/>
+        <c:axId val="-231406832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68238720"/>
+        <c:crossAx val="-231407376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,8 +2378,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2371,7 +2394,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2382,27 +2415,31 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2463,25 +2500,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2494,13 +2534,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
           <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2512,7 +2559,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2536,11 +2593,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2550,27 +2610,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ashwathy</c:v>
+                  <c:v>Aswathy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2642,21 +2690,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2728,21 +2764,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2814,21 +2838,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2897,21 +2909,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2980,21 +2980,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3066,21 +3054,9 @@
             <a:ln w="3175" cap="rnd" cmpd="sng"/>
           </c:spPr>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3137,34 +3113,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68856448"/>
-        <c:axId val="68747648"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-231403024"/>
+        <c:axId val="-231402480"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="68856448"/>
+        <c:axId val="-231403024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68747648"/>
+        <c:crossAx val="-231402480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68747648"/>
+        <c:axId val="-231402480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68856448"/>
+        <c:crossAx val="-231403024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3172,8 +3162,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3185,7 +3178,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3206,6 +3209,7 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3225,7 +3229,23 @@
           <c:order val="0"/>
           <c:explosion val="25"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3233,7 +3253,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Ashwathy</c:v>
+                  <c:v>Aswathy</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Vishnu</c:v>
@@ -3262,7 +3282,25 @@
           <c:order val="1"/>
           <c:explosion val="25"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3270,7 +3308,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Ashwathy</c:v>
+                  <c:v>Aswathy</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Vishnu</c:v>
@@ -3320,7 +3358,23 @@
           <c:order val="2"/>
           <c:explosion val="25"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3328,7 +3382,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Ashwathy</c:v>
+                  <c:v>Aswathy</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Vishnu</c:v>
@@ -3353,7 +3407,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="10"/>
@@ -3362,8 +3422,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3375,7 +3438,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3394,7 +3467,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3403,18 +3478,33 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3442,7 +3532,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -3450,6 +3546,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3462,6 +3559,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3473,7 +3572,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3496,29 +3605,51 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>TASK 1</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3551,13 +3682,33 @@
           <c:tx>
             <c:v>TASK 2</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3590,13 +3741,33 @@
           <c:tx>
             <c:v>TASK 3</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3629,13 +3800,33 @@
           <c:tx>
             <c:v>TASK 4</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3663,42 +3854,54 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="100304768"/>
-        <c:axId val="100369536"/>
+        <c:axId val="-231409008"/>
+        <c:axId val="-228509776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100304768"/>
+        <c:axId val="-231409008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100369536"/>
+        <c:crossAx val="-228509776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100369536"/>
+        <c:axId val="-228509776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100304768"/>
+        <c:crossAx val="-231409008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3710,7 +3913,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3733,19 +3946,40 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -3802,43 +4036,56 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="89477504"/>
-        <c:axId val="89479040"/>
+        <c:axId val="-228511952"/>
+        <c:axId val="-228512496"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="89477504"/>
+        <c:axId val="-228511952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="dd\/mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89479040"/>
+        <c:crossAx val="-228512496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89479040"/>
+        <c:axId val="-228512496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89477504"/>
+        <c:crossAx val="-228511952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4110,47 +4357,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Project" displayName="Project" ref="D1:G3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="D1:G3">
-    <filterColumn colId="2"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Project" displayName="Project" ref="D1:G5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="D1:G5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="No" dataDxfId="5">
+    <tableColumn id="1" name="No" dataDxfId="35">
       <calculatedColumnFormula>IFERROR($D1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Project" dataDxfId="4"/>
-    <tableColumn id="5" name="Project Code" dataDxfId="3"/>
-    <tableColumn id="3" name="Category" dataDxfId="2"/>
+    <tableColumn id="2" name="Project" dataDxfId="34"/>
+    <tableColumn id="5" name="Project Code" dataDxfId="33"/>
+    <tableColumn id="3" name="Category" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G10" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:G10">
-    <filterColumn colId="2"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="35">
+    <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Project" dataDxfId="34"/>
-    <tableColumn id="9" name="PRJTSKSEQ" dataDxfId="33">
+    <tableColumn id="2" name="Project" dataDxfId="28"/>
+    <tableColumn id="9" name="PRJTSKSEQ" dataDxfId="27">
       <calculatedColumnFormula>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B2,ProjectTasks[[#This Row],[Project]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Task" dataDxfId="32"/>
-    <tableColumn id="4" name="TaskProjectCode" dataDxfId="31">
-      <calculatedColumnFormula>CONCATENATE([Project],"/",[Task])</calculatedColumnFormula>
+    <tableColumn id="3" name="Task" dataDxfId="26"/>
+    <tableColumn id="4" name="TaskProjectCode" dataDxfId="25">
+      <calculatedColumnFormula>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PRJ" dataDxfId="30">
-      <calculatedColumnFormula>[Project]</calculatedColumnFormula>
+    <tableColumn id="5" name="PRJ" dataDxfId="24">
+      <calculatedColumnFormula>ProjectTasks[Project]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="TSK" dataDxfId="29">
-      <calculatedColumnFormula>[Task]</calculatedColumnFormula>
+    <tableColumn id="6" name="TSK" dataDxfId="23">
+      <calculatedColumnFormula>ProjectTasks[Task]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4158,74 +4398,62 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Employees" displayName="Employees" ref="A1:B5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Employees" displayName="Employees" ref="A1:B5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="No" dataDxfId="26">
+    <tableColumn id="1" name="No" dataDxfId="20">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:Q2">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
-    <filterColumn colId="15"/>
-    <filterColumn colId="16"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q8"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="No" dataDxfId="22">
+    <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="PRJ" dataDxfId="21">
-      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
+    <tableColumn id="11" name="PRJ" dataDxfId="15">
+      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="TSK" dataDxfId="20">
-      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
+    <tableColumn id="12" name="TSK" dataDxfId="14">
+      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="EmployeeDate" dataDxfId="19">
-      <calculatedColumnFormula>[Employee]&amp;"/"&amp;[Date]</calculatedColumnFormula>
+    <tableColumn id="13" name="EmployeeDate" dataDxfId="13">
+      <calculatedColumnFormula>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="18">
-      <calculatedColumnFormula>COUNTIF($D$1:$D2,TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
+    <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="12">
+      <calculatedColumnFormula>COUNTIF($D$1:$D8,TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="EmployeeDateSeqCode" dataDxfId="17">
+    <tableColumn id="15" name="EmployeeDateSeqCode" dataDxfId="11">
       <calculatedColumnFormula>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Task" dataDxfId="16"/>
-    <tableColumn id="3" name="Employee" dataDxfId="15"/>
-    <tableColumn id="4" name="Date" dataDxfId="14"/>
-    <tableColumn id="5" name="Start Time" dataDxfId="13"/>
-    <tableColumn id="6" name="End Time" dataDxfId="12"/>
-    <tableColumn id="7" name="Total Minutes" dataDxfId="11">
-      <calculatedColumnFormula>([End Time]-[Start Time])*1440</calculatedColumnFormula>
+    <tableColumn id="2" name="Task" dataDxfId="10"/>
+    <tableColumn id="3" name="Employee" dataDxfId="9"/>
+    <tableColumn id="4" name="Date" dataDxfId="8"/>
+    <tableColumn id="5" name="Start Time" dataDxfId="7"/>
+    <tableColumn id="6" name="End Time" dataDxfId="6"/>
+    <tableColumn id="7" name="Total Minutes" dataDxfId="5">
+      <calculatedColumnFormula>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Total" dataDxfId="10">
-      <calculatedColumnFormula>TEXT([End Time]-[Start Time],"HH:mm")</calculatedColumnFormula>
+    <tableColumn id="8" name="Total" dataDxfId="4">
+      <calculatedColumnFormula>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Day Total Minutes" dataDxfId="9">
-      <calculatedColumnFormula>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</calculatedColumnFormula>
+    <tableColumn id="9" name="Day Total Minutes" dataDxfId="3">
+      <calculatedColumnFormula>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Day Total" dataDxfId="8">
-      <calculatedColumnFormula>TEXT([Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
+    <tableColumn id="10" name="Day Total" dataDxfId="2">
+      <calculatedColumnFormula>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="PRJLST" dataDxfId="7">
-      <calculatedColumnFormula>[PRJ]</calculatedColumnFormula>
+    <tableColumn id="16" name="PRJLST" dataDxfId="1">
+      <calculatedColumnFormula>TaskTimings[PRJ]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="TSKLST" dataDxfId="6">
-      <calculatedColumnFormula>[TSK]</calculatedColumnFormula>
+    <tableColumn id="17" name="TSKLST" dataDxfId="0">
+      <calculatedColumnFormula>TaskTimings[TSK]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4275,7 +4503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4307,9 +4535,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4341,6 +4570,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4516,14 +4746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -4533,7 +4763,7 @@
     <col min="11" max="11" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -4575,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4587,18 +4817,48 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="40">
+        <f>IFERROR($D3+1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="40">
+        <f>IFERROR($D4+1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>ProjectCaregoryNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -4612,14 +4872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" hidden="1" customWidth="1"/>
@@ -4629,7 +4889,7 @@
     <col min="7" max="7" width="88.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4637,22 +4897,22 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A7" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -4668,19 +4928,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Theme Designing</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Theme Designing</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4696,19 +4956,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Database Structure Designing</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Database Structure Designing</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4724,19 +4984,19 @@
         <v>11</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Appframe configuration</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4752,19 +5012,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Inhouse Testing</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Inhouse Testing</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4780,19 +5040,19 @@
         <v>13</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Client Demonstration</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Client Demonstration</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4808,105 +5068,189 @@
         <v>14</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Client Suggestion Implementation</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Client Suggestion Implementation</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f>IFERROR($A7+1,1)</f>
+        <f t="shared" ref="A8:A13" si="1">IFERROR($A7+1,1)</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B8,ProjectTasks[[#This Row],[Project]])</f>
         <v>TKT-1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="82" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>49</v>
+      </c>
+      <c r="E8" s="34" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="F8" s="82" t="str">
-        <f>[Project]</f>
+      <c r="F8" s="34" t="str">
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
-      <c r="G8" s="82" t="str">
-        <f>[Task]</f>
+      <c r="G8" s="34" t="str">
+        <f>ProjectTasks[Task]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <f>IFERROR($A8+1,1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B9,ProjectTasks[[#This Row],[Project]])</f>
         <v>TKT-2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="82" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="34" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/DB Designing</v>
       </c>
-      <c r="F9" s="82" t="str">
-        <f>[Project]</f>
+      <c r="F9" s="34" t="str">
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
-      <c r="G9" s="82" t="str">
-        <f>[Task]</f>
+      <c r="G9" s="34" t="str">
+        <f>ProjectTasks[Task]</f>
         <v>DB Designing</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <f>IFERROR($A9+1,1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="11" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B10,ProjectTasks[[#This Row],[Project]])</f>
-        <v>TKT-3</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="43" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
+        <v>TKT-4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="82" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+      <c r="E10" s="34" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/Appframe configuration</v>
       </c>
-      <c r="F10" s="82" t="str">
-        <f>[Project]</f>
+      <c r="F10" s="34" t="str">
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
-      <c r="G10" s="82" t="str">
-        <f>[Task]</f>
+      <c r="G10" s="34" t="str">
+        <f>ProjectTasks[Task]</f>
         <v>Appframe configuration</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="47" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
+        <v>TKT-4</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="46" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>TKT/Discussion for ticketing modification</v>
+      </c>
+      <c r="F11" s="46" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>TKT</v>
+      </c>
+      <c r="G11" s="46" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="47" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
+        <v>SDS-2</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="46" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>SDS/Decryption</v>
+      </c>
+      <c r="F12" s="46" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>SDS</v>
+      </c>
+      <c r="G12" s="46" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Decryption</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="45" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
+        <v>SDS-2</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="46" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>SDS/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="F13" s="46" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>SDS</v>
+      </c>
+      <c r="G13" s="46" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
       <formula1>ProjectCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -4918,19 +5262,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4938,40 +5282,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A5" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4983,14 +5327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" hidden="1" customWidth="1"/>
@@ -5004,84 +5348,520 @@
     <col min="16" max="17" width="9.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A8" si="0">IFERROR($A1+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43430</v>
+      </c>
+      <c r="E2" s="47">
+        <f>COUNTIF($D$1:$D7,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43430/3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="8">
+        <v>43430</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L2" s="2">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="N2" s="2">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:30</v>
+      </c>
+      <c r="P2" s="10" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q2" s="10" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C3" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="D3" s="45" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43430</v>
+      </c>
+      <c r="E3" s="47">
+        <f>COUNTIF($D$1:$D8,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="45" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43430/3</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="49">
+        <v>43430</v>
+      </c>
+      <c r="J3" s="50">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K3" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L3" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>90</v>
+      </c>
+      <c r="M3" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="N3" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330.99999999999994</v>
+      </c>
+      <c r="O3" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:31</v>
+      </c>
+      <c r="P3" s="45" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q3" s="45" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C4" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Decryption</v>
+      </c>
+      <c r="D4" s="45" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43430</v>
+      </c>
+      <c r="E4" s="45">
+        <f>COUNTIF($D$1:$D9,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="45" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43430/4</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="49">
+        <v>43430</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K4" s="51">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L4" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="M4" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>00:30</v>
+      </c>
+      <c r="N4" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330</v>
+      </c>
+      <c r="O4" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:30</v>
+      </c>
+      <c r="P4" s="45" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q4" s="45" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Decryption</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C5" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Database Analysis from Old Project</v>
+      </c>
+      <c r="D5" s="45" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43430</v>
+      </c>
+      <c r="E5" s="45">
+        <f>COUNTIF($D$1:$D10,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="45" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43430/3</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="49">
+        <v>43430</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="K5" s="51">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="L5" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>121.00000000000006</v>
+      </c>
+      <c r="M5" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>02:01</v>
+      </c>
+      <c r="N5" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330.99999999999994</v>
+      </c>
+      <c r="O5" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:31</v>
+      </c>
+      <c r="P5" s="45" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q5" s="45" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Database Analysis from Old Project</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C6" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="D6" s="45" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43430</v>
+      </c>
+      <c r="E6" s="45">
+        <f>COUNTIF($D$1:$D11,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="45" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43430/4</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="49">
+        <v>43430</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K6" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L6" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>89.999999999999915</v>
+      </c>
+      <c r="M6" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="N6" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330</v>
+      </c>
+      <c r="O6" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:30</v>
+      </c>
+      <c r="P6" s="45" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q6" s="45" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C7" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>DB Designing</v>
+      </c>
+      <c r="D7" s="45" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43430</v>
+      </c>
+      <c r="E7" s="45">
+        <f>COUNTIF($D$1:$D12,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="45" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43430/3</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="49">
+        <v>43430</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K7" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="M7" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>02:00</v>
+      </c>
+      <c r="N7" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330.99999999999994</v>
+      </c>
+      <c r="O7" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:31</v>
+      </c>
+      <c r="P7" s="45" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q7" s="45" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>DB Designing</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C8" s="45" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="D8" s="45" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43430</v>
+      </c>
+      <c r="E8" s="45">
+        <f>COUNTIF($D$1:$D13,TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="45" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43430/4</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="49">
+        <v>43430</v>
+      </c>
+      <c r="J8" s="50">
+        <v>0.625</v>
+      </c>
+      <c r="K8" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L8" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="M8" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>02:00</v>
+      </c>
+      <c r="N8" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>330</v>
+      </c>
+      <c r="O8" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:30</v>
+      </c>
+      <c r="P8" s="45" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q8" s="45" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -5094,55 +5874,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="J2" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="J2" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="35" t="str">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
-        <v>TKT</v>
-      </c>
-      <c r="B4" s="35"/>
+        <v>RTM</v>
+      </c>
+      <c r="B4" s="74"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -5165,84 +5945,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="J5" s="38" t="str">
+      <c r="H5" s="56"/>
+      <c r="J5" s="65" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
-        <v>Ashwathy</v>
-      </c>
-      <c r="K5" s="41" t="str">
+        <v>Aswathy</v>
+      </c>
+      <c r="K5" s="54" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="41" t="str">
+      <c r="L5" s="54" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="41" t="str">
+      <c r="M5" s="54" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="41" t="str">
+      <c r="N5" s="54" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="41" t="str">
+      <c r="O5" s="54" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="45" t="str">
+      <c r="P5" s="56" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="39"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="46"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="46"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="57"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="57"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="str">
+      <c r="B7" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Database Analysis from Old Project</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="43">
+        <v/>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="68"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5272,23 +6052,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="str">
+      <c r="B8" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>DB Designing</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="43">
+        <v/>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="68"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5318,23 +6098,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="str">
+      <c r="B9" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Appframe configuration</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="43">
+        <v/>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="68"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5364,23 +6144,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="str">
+      <c r="B10" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="43">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="68"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5410,23 +6190,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="str">
+      <c r="B11" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="43">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="68"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5456,23 +6236,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="str">
+      <c r="B12" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="43">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="68"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5502,23 +6282,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="34" t="str">
+      <c r="B13" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="43">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="68"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5548,23 +6328,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="34" t="str">
+      <c r="B14" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="43">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="68"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5594,23 +6374,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="34" t="str">
+      <c r="B15" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="43">
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="68"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5640,23 +6420,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="34" t="str">
+      <c r="B16" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="43">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="68"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5686,23 +6466,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="34" t="str">
+      <c r="B17" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="43">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="68"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5732,23 +6512,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="34" t="str">
+      <c r="B18" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="43">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="68"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5778,23 +6558,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="34" t="str">
+      <c r="B19" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="43">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="68"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5824,23 +6604,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="34" t="str">
+      <c r="B20" s="69" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="43">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="68"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5870,23 +6650,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="72" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="49">
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="70">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="71"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -5916,69 +6696,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:16">
-      <c r="D23" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="52">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="59">
         <f>SUM(G7:H21)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="J23" s="47">
+      <c r="H23" s="61"/>
+      <c r="J23" s="52">
         <f>SUM(J7:J21)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="52">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="47">
+      <c r="N23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1">
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="57"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="64"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -5995,36 +6799,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -6038,31 +6818,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="F1" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="F1" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="77"/>
+      <c r="G1" s="81"/>
       <c r="I1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -6076,20 +6856,20 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="F2" s="76">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="F2" s="80">
         <v>43423</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="I2" s="58">
+      <c r="G2" s="80"/>
+      <c r="I2" s="97">
         <f>SUM(I7:I30)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="60" t="str">
+      <c r="J2" s="91" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>0:00</v>
       </c>
@@ -6105,15 +6885,15 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="61"/>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -6126,44 +6906,44 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:28">
-      <c r="K4" s="51" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K4" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B5" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="87" t="s">
+      <c r="K6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88" t="s">
-        <v>42</v>
+      <c r="M6" s="88"/>
+      <c r="N6" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
@@ -6172,27 +6952,27 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="82">
         <f>$F$2</f>
         <v>43423</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="68" t="str">
+      <c r="C7" s="54"/>
+      <c r="D7" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="90">
         <f>SUM(H7:H10)</f>
         <v>0</v>
       </c>
@@ -6200,11 +6980,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="62" t="str">
+      <c r="L7" s="93" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M7" s="62"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -6219,7 +6999,7 @@
         <f>IF(COUNTIFS($D$6:$D7,D7)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="81" t="str">
+      <c r="V7" s="33" t="str">
         <f>IF($U7=0,"",VLOOKUP($D7,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6231,50 +7011,50 @@
         <f>IF($W7=1,SUM($X$6:$X6)+1,"")</f>
         <v/>
       </c>
-      <c r="Y7" s="85" t="str">
+      <c r="Y7" s="37" t="str">
         <f>IF($W7="","",$V7)</f>
         <v/>
       </c>
-      <c r="Z7" s="81" t="str">
+      <c r="Z7" s="33" t="str">
         <f>IF($Y7="","",$Y7&amp;"/"&amp;COUNTIF($Y$7:$Y7,$Y7))</f>
         <v/>
       </c>
-      <c r="AA7" s="81" t="str">
+      <c r="AA7" s="33" t="str">
         <f>IF($Z7="","",VLOOKUP($D7,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB7" s="81">
+      <c r="AB7" s="33">
         <f>IF($AA7="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y7&amp;"/"&amp;$AA7))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="71" t="str">
+      <c r="B8" s="66"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="60"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="62" t="str">
+      <c r="L8" s="93" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M8" s="62"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>0</v>
@@ -6289,7 +7069,7 @@
         <f>IF(COUNTIFS($D$6:$D8,D8)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="81" t="str">
+      <c r="V8" s="33" t="str">
         <f>IF($U8=0,"",VLOOKUP($D8,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6301,50 +7081,50 @@
         <f>IF($W8=1,SUM($X$6:$X7)+1,"")</f>
         <v/>
       </c>
-      <c r="Y8" s="85" t="str">
+      <c r="Y8" s="37" t="str">
         <f t="shared" ref="Y8:Y30" si="1">IF($W8="","",$V8)</f>
         <v/>
       </c>
-      <c r="Z8" s="81" t="str">
+      <c r="Z8" s="33" t="str">
         <f>IF($Y8="","",$Y8&amp;"/"&amp;COUNTIF($Y$7:$Y8,$Y8))</f>
         <v/>
       </c>
-      <c r="AA8" s="81" t="str">
+      <c r="AA8" s="33" t="str">
         <f>IF($Z8="","",VLOOKUP($D8,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB8" s="81">
+      <c r="AB8" s="33">
         <f t="shared" ref="AB8:AB30" si="2">IF($AA8="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y8&amp;"/"&amp;$AA8))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="71" t="str">
+      <c r="B9" s="66"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="60"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="62" t="str">
+      <c r="L9" s="93" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="62"/>
+      <c r="M9" s="93"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6359,7 +7139,7 @@
         <f>IF(COUNTIFS($D$6:$D9,D9)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="81" t="str">
+      <c r="V9" s="33" t="str">
         <f>IF($U9=0,"",VLOOKUP($D9,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6371,50 +7151,50 @@
         <f>IF($W9=1,SUM($X$6:$X8)+1,"")</f>
         <v/>
       </c>
-      <c r="Y9" s="85" t="str">
+      <c r="Y9" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z9" s="81" t="str">
+      <c r="Z9" s="33" t="str">
         <f>IF($Y9="","",$Y9&amp;"/"&amp;COUNTIF($Y$7:$Y9,$Y9))</f>
         <v/>
       </c>
-      <c r="AA9" s="81" t="str">
+      <c r="AA9" s="33" t="str">
         <f>IF($Z9="","",VLOOKUP($D9,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB9" s="81">
+      <c r="AB9" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="71" t="str">
+      <c r="B10" s="66"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="62" t="str">
+      <c r="L10" s="93" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="62"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6429,7 +7209,7 @@
         <f>IF(COUNTIFS($D$6:$D10,D10)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="81" t="str">
+      <c r="V10" s="33" t="str">
         <f>IF($U10=0,"",VLOOKUP($D10,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6441,44 +7221,44 @@
         <f>IF($W10=1,SUM($X$6:$X9)+1,"")</f>
         <v/>
       </c>
-      <c r="Y10" s="85" t="str">
+      <c r="Y10" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z10" s="81" t="str">
+      <c r="Z10" s="33" t="str">
         <f>IF($Y10="","",$Y10&amp;"/"&amp;COUNTIF($Y$7:$Y10,$Y10))</f>
         <v/>
       </c>
-      <c r="AA10" s="81" t="str">
+      <c r="AA10" s="33" t="str">
         <f>IF($Z10="","",VLOOKUP($D10,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB10" s="81">
+      <c r="AB10" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="85">
         <f>B7+1</f>
         <v>43424</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="71" t="str">
+      <c r="C11" s="55"/>
+      <c r="D11" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="91">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>0</v>
       </c>
@@ -6486,11 +7266,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="63" t="str">
+      <c r="L11" s="96" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="63"/>
+      <c r="M11" s="96"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6505,7 +7285,7 @@
         <f>IF(COUNTIFS($D$6:$D11,D11)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="81" t="str">
+      <c r="V11" s="33" t="str">
         <f>IF($U11=0,"",VLOOKUP($D11,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6517,41 +7297,41 @@
         <f>IF($W11=1,SUM($X$6:$X10)+1,"")</f>
         <v/>
       </c>
-      <c r="Y11" s="85" t="str">
+      <c r="Y11" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z11" s="81" t="str">
+      <c r="Z11" s="33" t="str">
         <f>IF($Y11="","",$Y11&amp;"/"&amp;COUNTIF($Y$7:$Y11,$Y11))</f>
         <v/>
       </c>
-      <c r="AA11" s="81" t="str">
+      <c r="AA11" s="33" t="str">
         <f>IF($Z11="","",VLOOKUP($D11,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB11" s="81">
+      <c r="AB11" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="71" t="str">
+      <c r="B12" s="66"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="60"/>
+      <c r="I12" s="91"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -6567,7 +7347,7 @@
         <f>IF(COUNTIFS($D$6:$D12,D12)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="81" t="str">
+      <c r="V12" s="33" t="str">
         <f>IF($U12=0,"",VLOOKUP($D12,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6579,48 +7359,48 @@
         <f>IF($W12=1,SUM($X$6:$X11)+1,"")</f>
         <v/>
       </c>
-      <c r="Y12" s="85" t="str">
+      <c r="Y12" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z12" s="81" t="str">
+      <c r="Z12" s="33" t="str">
         <f>IF($Y12="","",$Y12&amp;"/"&amp;COUNTIF($Y$7:$Y12,$Y12))</f>
         <v/>
       </c>
-      <c r="AA12" s="81" t="str">
+      <c r="AA12" s="33" t="str">
         <f>IF($Z12="","",VLOOKUP($D12,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB12" s="81">
+      <c r="AB12" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="71" t="str">
+      <c r="B13" s="66"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
+      <c r="K13" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -6631,7 +7411,7 @@
         <f>IF(COUNTIFS($D$6:$D13,D13)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="81" t="str">
+      <c r="V13" s="33" t="str">
         <f>IF($U13=0,"",VLOOKUP($D13,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6643,46 +7423,46 @@
         <f>IF($W13=1,SUM($X$6:$X12)+1,"")</f>
         <v/>
       </c>
-      <c r="Y13" s="85" t="str">
+      <c r="Y13" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z13" s="81" t="str">
+      <c r="Z13" s="33" t="str">
         <f>IF($Y13="","",$Y13&amp;"/"&amp;COUNTIF($Y$7:$Y13,$Y13))</f>
         <v/>
       </c>
-      <c r="AA13" s="81" t="str">
+      <c r="AA13" s="33" t="str">
         <f>IF($Z13="","",VLOOKUP($D13,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB13" s="81">
+      <c r="AB13" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="71" t="str">
+      <c r="B14" s="66"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="60"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -6693,7 +7473,7 @@
         <f>IF(COUNTIFS($D$6:$D14,D14)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="81" t="str">
+      <c r="V14" s="33" t="str">
         <f>IF($U14=0,"",VLOOKUP($D14,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6705,63 +7485,63 @@
         <f>IF($W14=1,SUM($X$6:$X13)+1,"")</f>
         <v/>
       </c>
-      <c r="Y14" s="85" t="str">
+      <c r="Y14" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z14" s="81" t="str">
+      <c r="Z14" s="33" t="str">
         <f>IF($Y14="","",$Y14&amp;"/"&amp;COUNTIF($Y$7:$Y14,$Y14))</f>
         <v/>
       </c>
-      <c r="AA14" s="81" t="str">
+      <c r="AA14" s="33" t="str">
         <f>IF($Z14="","",VLOOKUP($D14,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB14" s="81">
+      <c r="AB14" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="85">
         <f>B11+1</f>
         <v>43425</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="71" t="str">
+      <c r="C15" s="55"/>
+      <c r="D15" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="91">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>0</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
       <c r="Q15" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R15" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -6769,7 +7549,7 @@
         <f>IF(COUNTIFS($D$6:$D15,D15)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="81" t="str">
+      <c r="V15" s="33" t="str">
         <f>IF($U15=0,"",VLOOKUP($D15,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6781,71 +7561,71 @@
         <f>IF($W15=1,SUM($X$6:$X14)+1,"")</f>
         <v/>
       </c>
-      <c r="Y15" s="85" t="str">
+      <c r="Y15" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z15" s="81" t="str">
+      <c r="Z15" s="33" t="str">
         <f>IF($Y15="","",$Y15&amp;"/"&amp;COUNTIF($Y$7:$Y15,$Y15))</f>
         <v/>
       </c>
-      <c r="AA15" s="81" t="str">
+      <c r="AA15" s="33" t="str">
         <f>IF($Z15="","",VLOOKUP($D15,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB15" s="81">
+      <c r="AB15" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="71" t="str">
+      <c r="B16" s="66"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="65" t="str">
+      <c r="K16" s="99" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="62" t="str">
+      <c r="L16" s="67"/>
+      <c r="M16" s="93" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
       <c r="Q16" s="22" t="str">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v/>
       </c>
-      <c r="R16" s="60">
+      <c r="R16" s="91">
         <f>SUM(Q16:Q19)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="83"/>
-      <c r="T16" s="84"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
       <c r="U16" s="14">
         <f>IF(COUNTIFS($D$6:$D16,D16)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="81" t="str">
+      <c r="V16" s="33" t="str">
         <f>IF($U16=0,"",VLOOKUP($D16,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6857,65 +7637,65 @@
         <f>IF($W16=1,SUM($X$6:$X15)+1,"")</f>
         <v/>
       </c>
-      <c r="Y16" s="85" t="str">
+      <c r="Y16" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z16" s="81" t="str">
+      <c r="Z16" s="33" t="str">
         <f>IF($Y16="","",$Y16&amp;"/"&amp;COUNTIF($Y$7:$Y16,$Y16))</f>
         <v/>
       </c>
-      <c r="AA16" s="81" t="str">
+      <c r="AA16" s="33" t="str">
         <f>IF($Z16="","",VLOOKUP($D16,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB16" s="81">
+      <c r="AB16" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="71" t="str">
+      <c r="B17" s="66"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="60"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="62" t="str">
+      <c r="K17" s="99"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="93" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="60"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="84"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
       <c r="U17" s="14">
         <f>IF(COUNTIFS($D$6:$D17,D17)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="81" t="str">
+      <c r="V17" s="33" t="str">
         <f>IF($U17=0,"",VLOOKUP($D17,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6927,65 +7707,65 @@
         <f>IF($W17=1,SUM($X$6:$X16)+1,"")</f>
         <v/>
       </c>
-      <c r="Y17" s="85" t="str">
+      <c r="Y17" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z17" s="81" t="str">
+      <c r="Z17" s="33" t="str">
         <f>IF($Y17="","",$Y17&amp;"/"&amp;COUNTIF($Y$7:$Y17,$Y17))</f>
         <v/>
       </c>
-      <c r="AA17" s="81" t="str">
+      <c r="AA17" s="33" t="str">
         <f>IF($Z17="","",VLOOKUP($D17,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB17" s="81">
+      <c r="AB17" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="71" t="str">
+      <c r="B18" s="66"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="62" t="str">
+      <c r="K18" s="99"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="93" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="60"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="84"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
       <c r="U18" s="14">
         <f>IF(COUNTIFS($D$6:$D18,D18)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V18" s="81" t="str">
+      <c r="V18" s="33" t="str">
         <f>IF($U18=0,"",VLOOKUP($D18,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -6997,71 +7777,71 @@
         <f>IF($W18=1,SUM($X$6:$X17)+1,"")</f>
         <v/>
       </c>
-      <c r="Y18" s="85" t="str">
+      <c r="Y18" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z18" s="81" t="str">
+      <c r="Z18" s="33" t="str">
         <f>IF($Y18="","",$Y18&amp;"/"&amp;COUNTIF($Y$7:$Y18,$Y18))</f>
         <v/>
       </c>
-      <c r="AA18" s="81" t="str">
+      <c r="AA18" s="33" t="str">
         <f>IF($Z18="","",VLOOKUP($D18,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB18" s="81">
+      <c r="AB18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="85">
         <f>B15+1</f>
         <v>43426</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="71" t="str">
+      <c r="C19" s="55"/>
+      <c r="D19" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="91">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="62" t="str">
+      <c r="K19" s="99"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="93" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="60"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="84"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
       <c r="U19" s="14">
         <f>IF(COUNTIFS($D$6:$D19,D19)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="81" t="str">
+      <c r="V19" s="33" t="str">
         <f>IF($U19=0,"",VLOOKUP($D19,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7073,61 +7853,61 @@
         <f>IF($W19=1,SUM($X$6:$X18)+1,"")</f>
         <v/>
       </c>
-      <c r="Y19" s="85" t="str">
+      <c r="Y19" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z19" s="81" t="str">
+      <c r="Z19" s="33" t="str">
         <f>IF($Y19="","",$Y19&amp;"/"&amp;COUNTIF($Y$7:$Y19,$Y19))</f>
         <v/>
       </c>
-      <c r="AA19" s="81" t="str">
+      <c r="AA19" s="33" t="str">
         <f>IF($Z19="","",VLOOKUP($D19,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB19" s="81">
+      <c r="AB19" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="71" t="str">
+      <c r="B20" s="66"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="60"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="65" t="str">
+      <c r="K20" s="99" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="62" t="str">
+      <c r="L20" s="67"/>
+      <c r="M20" s="93" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
       <c r="Q20" s="22" t="str">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v/>
       </c>
-      <c r="R20" s="60">
+      <c r="R20" s="91">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>0</v>
       </c>
@@ -7137,7 +7917,7 @@
         <f>IF(COUNTIFS($D$6:$D20,D20)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="81" t="str">
+      <c r="V20" s="33" t="str">
         <f>IF($U20=0,"",VLOOKUP($D20,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7149,65 +7929,65 @@
         <f>IF($W20=1,SUM($X$6:$X19)+1,"")</f>
         <v/>
       </c>
-      <c r="Y20" s="85" t="str">
+      <c r="Y20" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z20" s="81" t="str">
+      <c r="Z20" s="33" t="str">
         <f>IF($Y20="","",$Y20&amp;"/"&amp;COUNTIF($Y$7:$Y20,$Y20))</f>
         <v/>
       </c>
-      <c r="AA20" s="81" t="str">
+      <c r="AA20" s="33" t="str">
         <f>IF($Z20="","",VLOOKUP($D20,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB20" s="81">
+      <c r="AB20" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="71" t="str">
+      <c r="B21" s="66"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="60"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="65"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="62" t="str">
+      <c r="K21" s="99"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="93" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
       <c r="Q21" s="22" t="str">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v/>
       </c>
-      <c r="R21" s="60"/>
+      <c r="R21" s="91"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
         <f>IF(COUNTIFS($D$6:$D21,D21)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="81" t="str">
+      <c r="V21" s="33" t="str">
         <f>IF($U21=0,"",VLOOKUP($D21,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7219,65 +7999,65 @@
         <f>IF($W21=1,SUM($X$6:$X20)+1,"")</f>
         <v/>
       </c>
-      <c r="Y21" s="85" t="str">
+      <c r="Y21" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z21" s="81" t="str">
+      <c r="Z21" s="33" t="str">
         <f>IF($Y21="","",$Y21&amp;"/"&amp;COUNTIF($Y$7:$Y21,$Y21))</f>
         <v/>
       </c>
-      <c r="AA21" s="81" t="str">
+      <c r="AA21" s="33" t="str">
         <f>IF($Z21="","",VLOOKUP($D21,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB21" s="81">
+      <c r="AB21" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="71" t="str">
+      <c r="B22" s="66"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="60"/>
+      <c r="I22" s="91"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="62" t="str">
+      <c r="K22" s="99"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="93" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="60"/>
+      <c r="R22" s="91"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
         <f>IF(COUNTIFS($D$6:$D22,D22)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="81" t="str">
+      <c r="V22" s="33" t="str">
         <f>IF($U22=0,"",VLOOKUP($D22,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7289,71 +8069,71 @@
         <f>IF($W22=1,SUM($X$6:$X21)+1,"")</f>
         <v/>
       </c>
-      <c r="Y22" s="85" t="str">
+      <c r="Y22" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z22" s="81" t="str">
+      <c r="Z22" s="33" t="str">
         <f>IF($Y22="","",$Y22&amp;"/"&amp;COUNTIF($Y$7:$Y22,$Y22))</f>
         <v/>
       </c>
-      <c r="AA22" s="81" t="str">
+      <c r="AA22" s="33" t="str">
         <f>IF($Z22="","",VLOOKUP($D22,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB22" s="81">
+      <c r="AB22" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="85">
         <f>B19+1</f>
         <v>43427</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="71" t="str">
+      <c r="C23" s="55"/>
+      <c r="D23" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="91">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="65"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="62" t="str">
+      <c r="K23" s="99"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="93" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="60"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
         <f>IF(COUNTIFS($D$6:$D23,D23)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="81" t="str">
+      <c r="V23" s="33" t="str">
         <f>IF($U23=0,"",VLOOKUP($D23,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7365,61 +8145,61 @@
         <f>IF($W23=1,SUM($X$6:$X22)+1,"")</f>
         <v/>
       </c>
-      <c r="Y23" s="85" t="str">
+      <c r="Y23" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z23" s="81" t="str">
+      <c r="Z23" s="33" t="str">
         <f>IF($Y23="","",$Y23&amp;"/"&amp;COUNTIF($Y$7:$Y23,$Y23))</f>
         <v/>
       </c>
-      <c r="AA23" s="81" t="str">
+      <c r="AA23" s="33" t="str">
         <f>IF($Z23="","",VLOOKUP($D23,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB23" s="81">
+      <c r="AB23" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="71" t="str">
+      <c r="B24" s="66"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="60"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="65" t="str">
+      <c r="K24" s="99" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="62" t="str">
+      <c r="L24" s="67"/>
+      <c r="M24" s="93" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="60">
+      <c r="R24" s="91">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -7429,7 +8209,7 @@
         <f>IF(COUNTIFS($D$6:$D24,D24)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="81" t="str">
+      <c r="V24" s="33" t="str">
         <f>IF($U24=0,"",VLOOKUP($D24,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7441,65 +8221,65 @@
         <f>IF($W24=1,SUM($X$6:$X23)+1,"")</f>
         <v/>
       </c>
-      <c r="Y24" s="85" t="str">
+      <c r="Y24" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z24" s="81" t="str">
+      <c r="Z24" s="33" t="str">
         <f>IF($Y24="","",$Y24&amp;"/"&amp;COUNTIF($Y$7:$Y24,$Y24))</f>
         <v/>
       </c>
-      <c r="AA24" s="81" t="str">
+      <c r="AA24" s="33" t="str">
         <f>IF($Z24="","",VLOOKUP($D24,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB24" s="81">
+      <c r="AB24" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="71" t="str">
+      <c r="B25" s="66"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="60"/>
+      <c r="I25" s="91"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="62" t="str">
+      <c r="K25" s="99"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="93" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="60"/>
+      <c r="R25" s="91"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
         <f>IF(COUNTIFS($D$6:$D25,D25)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="81" t="str">
+      <c r="V25" s="33" t="str">
         <f>IF($U25=0,"",VLOOKUP($D25,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7511,65 +8291,65 @@
         <f>IF($W25=1,SUM($X$6:$X24)+1,"")</f>
         <v/>
       </c>
-      <c r="Y25" s="85" t="str">
+      <c r="Y25" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z25" s="81" t="str">
+      <c r="Z25" s="33" t="str">
         <f>IF($Y25="","",$Y25&amp;"/"&amp;COUNTIF($Y$7:$Y25,$Y25))</f>
         <v/>
       </c>
-      <c r="AA25" s="81" t="str">
+      <c r="AA25" s="33" t="str">
         <f>IF($Z25="","",VLOOKUP($D25,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB25" s="81">
+      <c r="AB25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="71" t="str">
+      <c r="B26" s="66"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="60"/>
+      <c r="I26" s="91"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="62" t="str">
+      <c r="K26" s="99"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="93" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="60"/>
+      <c r="R26" s="91"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
         <f>IF(COUNTIFS($D$6:$D26,D26)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="81" t="str">
+      <c r="V26" s="33" t="str">
         <f>IF($U26=0,"",VLOOKUP($D26,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7581,71 +8361,71 @@
         <f>IF($W26=1,SUM($X$6:$X25)+1,"")</f>
         <v/>
       </c>
-      <c r="Y26" s="85" t="str">
+      <c r="Y26" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z26" s="81" t="str">
+      <c r="Z26" s="33" t="str">
         <f>IF($Y26="","",$Y26&amp;"/"&amp;COUNTIF($Y$7:$Y26,$Y26))</f>
         <v/>
       </c>
-      <c r="AA26" s="81" t="str">
+      <c r="AA26" s="33" t="str">
         <f>IF($Z26="","",VLOOKUP($D26,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB26" s="81">
+      <c r="AB26" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="85">
         <f>B23+1</f>
         <v>43428</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="71" t="str">
+      <c r="C27" s="55"/>
+      <c r="D27" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="91">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="65"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="62" t="str">
+      <c r="K27" s="99"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="93" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="60"/>
+      <c r="R27" s="91"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
         <f>IF(COUNTIFS($D$6:$D27,D27)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V27" s="81" t="str">
+      <c r="V27" s="33" t="str">
         <f>IF($U27=0,"",VLOOKUP($D27,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7657,61 +8437,61 @@
         <f>IF($W27=1,SUM($X$6:$X26)+1,"")</f>
         <v/>
       </c>
-      <c r="Y27" s="85" t="str">
+      <c r="Y27" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z27" s="81" t="str">
+      <c r="Z27" s="33" t="str">
         <f>IF($Y27="","",$Y27&amp;"/"&amp;COUNTIF($Y$7:$Y27,$Y27))</f>
         <v/>
       </c>
-      <c r="AA27" s="81" t="str">
+      <c r="AA27" s="33" t="str">
         <f>IF($Z27="","",VLOOKUP($D27,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB27" s="81">
+      <c r="AB27" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="71" t="str">
+      <c r="B28" s="66"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="60"/>
+      <c r="I28" s="91"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="65" t="str">
+      <c r="K28" s="99" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="62" t="str">
+      <c r="L28" s="67"/>
+      <c r="M28" s="93" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="60">
+      <c r="R28" s="91">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -7721,7 +8501,7 @@
         <f>IF(COUNTIFS($D$6:$D28,D28)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V28" s="81" t="str">
+      <c r="V28" s="33" t="str">
         <f>IF($U28=0,"",VLOOKUP($D28,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7733,65 +8513,65 @@
         <f>IF($W28=1,SUM($X$6:$X27)+1,"")</f>
         <v/>
       </c>
-      <c r="Y28" s="85" t="str">
+      <c r="Y28" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z28" s="81" t="str">
+      <c r="Z28" s="33" t="str">
         <f>IF($Y28="","",$Y28&amp;"/"&amp;COUNTIF($Y$7:$Y28,$Y28))</f>
         <v/>
       </c>
-      <c r="AA28" s="81" t="str">
+      <c r="AA28" s="33" t="str">
         <f>IF($Z28="","",VLOOKUP($D28,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB28" s="81">
+      <c r="AB28" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="71" t="str">
+      <c r="B29" s="66"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="65"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="62" t="str">
+      <c r="K29" s="99"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="93" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="60"/>
+      <c r="R29" s="91"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
         <f>IF(COUNTIFS($D$6:$D29,D29)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="81" t="str">
+      <c r="V29" s="33" t="str">
         <f>IF($U29=0,"",VLOOKUP($D29,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7803,60 +8583,60 @@
         <f>IF($W29=1,SUM($X$6:$X28)+1,"")</f>
         <v/>
       </c>
-      <c r="Y29" s="85" t="str">
+      <c r="Y29" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z29" s="81" t="str">
+      <c r="Z29" s="33" t="str">
         <f>IF($Y29="","",$Y29&amp;"/"&amp;COUNTIF($Y$7:$Y29,$Y29))</f>
         <v/>
       </c>
-      <c r="AA29" s="81" t="str">
+      <c r="AA29" s="33" t="str">
         <f>IF($Z29="","",VLOOKUP($D29,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB29" s="81">
+      <c r="AB29" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="69" t="str">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="62" t="str">
+      <c r="K30" s="99"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="93" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="60"/>
+      <c r="R30" s="91"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="81" t="str">
+      <c r="V30" s="33" t="str">
         <f>IF($U30=0,"",VLOOKUP($D30,TaskTimings[[Task]:[PRJLST]],10,0))</f>
         <v/>
       </c>
@@ -7868,153 +8648,165 @@
         <f>IF($W30=1,SUM($X$6:$X29)+1,"")</f>
         <v/>
       </c>
-      <c r="Y30" s="85" t="str">
+      <c r="Y30" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z30" s="81" t="str">
+      <c r="Z30" s="33" t="str">
         <f>IF($Y30="","",$Y30&amp;"/"&amp;COUNTIF($Y$7:$Y30,$Y30))</f>
         <v/>
       </c>
-      <c r="AA30" s="81" t="str">
+      <c r="AA30" s="33" t="str">
         <f>IF($Z30="","",VLOOKUP($D30,TaskTimings[[Task]:[TSKLST]],11,0))</f>
         <v/>
       </c>
-      <c r="AB30" s="81">
+      <c r="AB30" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="65"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="62" t="str">
+      <c r="K31" s="99"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="93" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="60"/>
+      <c r="R31" s="91"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="65" t="str">
+      <c r="K32" s="99" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="62" t="str">
+      <c r="L32" s="67"/>
+      <c r="M32" s="93" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="60">
+      <c r="R32" s="91">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:18">
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="65"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="62" t="str">
+      <c r="K33" s="99"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="93" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="60"/>
+      <c r="R33" s="91"/>
     </row>
-    <row r="34" spans="10:18">
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="62" t="str">
+      <c r="K34" s="99"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="93" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="60"/>
+      <c r="R34" s="91"/>
     </row>
-    <row r="35" spans="10:18" ht="15.75" thickBot="1">
+    <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="66"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="63" t="str">
+      <c r="K35" s="100"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="61"/>
+      <c r="R35" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="I7:I10"/>
@@ -8031,45 +8823,33 @@
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <definedName name="ProjectNames">Project[Project]</definedName>
     <definedName name="TSKPRJCodes">ProjectTasks[TaskProjectCode]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -228,13 +223,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
     <numFmt numFmtId="165" formatCode="dd\/mmm"/>
-    <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -689,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,11 +699,53 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,16 +753,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,41 +780,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -810,57 +852,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,7 +859,11 @@
   <dxfs count="42">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -879,7 +874,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -894,7 +908,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -908,7 +922,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -922,7 +937,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -936,7 +951,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -950,7 +965,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -964,7 +979,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -978,8 +993,22 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="23" formatCode="hh:mm\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -994,7 +1023,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1039,7 +1068,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1058,7 +1087,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1077,7 +1106,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1096,26 +1125,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1130,7 +1140,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1184,7 +1194,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1283,25 +1293,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1316,7 +1307,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1399,7 +1390,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1452,7 +1443,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1495,33 +1486,35 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1536,11 +1529,25 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1555,11 +1562,25 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1574,11 +1595,25 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1618,7 +1653,6 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1627,13 +1661,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1642,9 +1680,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1653,16 +1706,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>121.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1704,11 +1757,25 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1720,51 +1787,57 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-231407920"/>
-        <c:axId val="-231405200"/>
+        <c:axId val="68763648"/>
+        <c:axId val="68765184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-231407920"/>
+        <c:axId val="68763648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231405200"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68765184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-231405200"/>
+        <c:axId val="68765184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231407920"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68763648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1780,11 +1853,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1792,25 +1864,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1825,11 +1885,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1847,7 +1921,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1900,11 +1974,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1975,11 +2063,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1988,16 +2090,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>121.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2050,11 +2152,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2122,11 +2238,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2194,11 +2324,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2266,11 +2410,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2327,50 +2485,56 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-231407376"/>
-        <c:axId val="-231406832"/>
+        <c:axId val="70266880"/>
+        <c:axId val="70268416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-231407376"/>
+        <c:axId val="70266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231406832"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70268416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-231406832"/>
+        <c:axId val="70268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231407376"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2378,15 +2542,23 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2394,17 +2566,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2422,14 +2584,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -2437,9 +2605,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2448,16 +2631,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>121.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2507,21 +2690,41 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2534,24 +2737,18 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
           <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2559,17 +2756,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2578,7 +2765,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
@@ -2593,14 +2780,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2616,9 +2800,24 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2636,7 +2835,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2690,9 +2889,24 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2764,9 +2978,24 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2775,16 +3004,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>121.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2838,9 +3067,24 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2909,9 +3153,24 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2980,9 +3239,24 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3054,9 +3328,24 @@
             <a:ln w="3175" cap="rnd" cmpd="sng"/>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Database Analysis from Old Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB Designing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Appframe configuration</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3113,48 +3402,56 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-231403024"/>
-        <c:axId val="-231402480"/>
+        <c:dLbls/>
+        <c:axId val="70433408"/>
+        <c:axId val="70328704"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-231403024"/>
+        <c:axId val="70433408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231402480"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70328704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-231402480"/>
+        <c:axId val="70328704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231403024"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70433408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3162,15 +3459,23 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3178,17 +3483,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3197,7 +3492,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
@@ -3209,16 +3504,15 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2123993121549466E-2"/>
+          <c:x val="2.212399312154947E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816792"/>
+          <c:w val="0.70026343258816803"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3236,13 +3530,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3289,13 +3587,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3329,13 +3631,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>330.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3365,13 +3667,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3407,13 +3713,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="10"/>
@@ -3422,15 +3722,23 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3438,17 +3746,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3457,7 +3755,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
@@ -3467,9 +3765,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3485,13 +3781,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
@@ -3502,9 +3805,18 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3516,7 +3828,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>240.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3532,13 +3844,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -3546,25 +3852,23 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr/>
+            <a:defRPr lang="en-US"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3572,17 +3876,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3591,7 +3885,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
@@ -3605,22 +3899,18 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>TASK 1</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -3630,15 +3920,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
             <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3647,9 +3942,18 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3658,10 +3962,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30.000000000000053</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3682,7 +3986,6 @@
           <c:tx>
             <c:v>TASK 2</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3691,13 +3994,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3706,9 +4013,18 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3720,7 +4036,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3741,7 +4057,6 @@
           <c:tx>
             <c:v>TASK 3</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3750,13 +4065,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3765,9 +4084,18 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3800,7 +4128,6 @@
           <c:tx>
             <c:v>TASK 4</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3809,13 +4136,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3824,9 +4155,18 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3854,58 +4194,67 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-231409008"/>
-        <c:axId val="-228509776"/>
+        <c:axId val="70499712"/>
+        <c:axId val="70509696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-231409008"/>
+        <c:axId val="70499712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-228509776"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70509696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-228509776"/>
+        <c:axId val="70509696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-231409008"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70499712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3913,17 +4262,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3932,7 +4271,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
@@ -3946,19 +4285,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3967,14 +4303,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -3988,22 +4328,22 @@
                 <c:formatCode>dd\/mmm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43423</c:v>
+                  <c:v>43430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43424</c:v>
+                  <c:v>43431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43425</c:v>
+                  <c:v>43432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43426</c:v>
+                  <c:v>43433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43427</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43428</c:v>
+                  <c:v>43435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4015,7 +4355,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4036,60 +4376,68 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-228511952"/>
-        <c:axId val="-228512496"/>
+        <c:axId val="70555136"/>
+        <c:axId val="70556672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-228511952"/>
+        <c:axId val="70555136"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="dd\/mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-228512496"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70556672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-228512496"/>
+        <c:axId val="70556672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-228511952"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70555136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4379,18 +4727,18 @@
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Project" dataDxfId="28"/>
-    <tableColumn id="9" name="PRJTSKSEQ" dataDxfId="27">
-      <calculatedColumnFormula>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B2,ProjectTasks[[#This Row],[Project]])</calculatedColumnFormula>
+    <tableColumn id="9" name="PRJTSKSEQ" dataDxfId="1">
+      <calculatedColumnFormula>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Task" dataDxfId="26"/>
-    <tableColumn id="4" name="TaskProjectCode" dataDxfId="25">
-      <calculatedColumnFormula>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</calculatedColumnFormula>
+    <tableColumn id="3" name="Task" dataDxfId="27"/>
+    <tableColumn id="4" name="TaskProjectCode" dataDxfId="26">
+      <calculatedColumnFormula>CONCATENATE([Project],"/",[Task])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PRJ" dataDxfId="24">
-      <calculatedColumnFormula>ProjectTasks[Project]</calculatedColumnFormula>
+    <tableColumn id="5" name="PRJ" dataDxfId="25">
+      <calculatedColumnFormula>[Project]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="TSK" dataDxfId="23">
-      <calculatedColumnFormula>ProjectTasks[Task]</calculatedColumnFormula>
+    <tableColumn id="6" name="TSK" dataDxfId="24">
+      <calculatedColumnFormula>[Task]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4398,62 +4746,62 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Employees" displayName="Employees" ref="A1:B5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Employees" displayName="Employees" ref="A1:B5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="No" dataDxfId="20">
+    <tableColumn id="1" name="No" dataDxfId="21">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:Q8"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="No" dataDxfId="16">
+    <tableColumn id="1" name="No" dataDxfId="17">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="PRJ" dataDxfId="15">
-      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
+    <tableColumn id="11" name="PRJ" dataDxfId="16">
+      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="TSK" dataDxfId="14">
-      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
+    <tableColumn id="12" name="TSK" dataDxfId="15">
+      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="EmployeeDate" dataDxfId="13">
-      <calculatedColumnFormula>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</calculatedColumnFormula>
+    <tableColumn id="13" name="EmployeeDate" dataDxfId="14">
+      <calculatedColumnFormula>[Employee]&amp;"/"&amp;[Date]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="12">
-      <calculatedColumnFormula>COUNTIF($D$1:$D8,TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
+    <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="EmployeeDateSeqCode" dataDxfId="11">
+    <tableColumn id="15" name="EmployeeDateSeqCode" dataDxfId="13">
       <calculatedColumnFormula>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Task" dataDxfId="10"/>
-    <tableColumn id="3" name="Employee" dataDxfId="9"/>
-    <tableColumn id="4" name="Date" dataDxfId="8"/>
-    <tableColumn id="5" name="Start Time" dataDxfId="7"/>
-    <tableColumn id="6" name="End Time" dataDxfId="6"/>
-    <tableColumn id="7" name="Total Minutes" dataDxfId="5">
-      <calculatedColumnFormula>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</calculatedColumnFormula>
+    <tableColumn id="2" name="Task" dataDxfId="12"/>
+    <tableColumn id="3" name="Employee" dataDxfId="11"/>
+    <tableColumn id="4" name="Date" dataDxfId="10"/>
+    <tableColumn id="5" name="Start Time" dataDxfId="9"/>
+    <tableColumn id="6" name="End Time" dataDxfId="8"/>
+    <tableColumn id="7" name="Total Minutes" dataDxfId="7">
+      <calculatedColumnFormula>([End Time]-[Start Time])*1440</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Total" dataDxfId="4">
-      <calculatedColumnFormula>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</calculatedColumnFormula>
+    <tableColumn id="8" name="Total" dataDxfId="6">
+      <calculatedColumnFormula>TEXT([End Time]-[Start Time],"HH:mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Day Total Minutes" dataDxfId="3">
-      <calculatedColumnFormula>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</calculatedColumnFormula>
+    <tableColumn id="9" name="Day Total Minutes" dataDxfId="5">
+      <calculatedColumnFormula>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Day Total" dataDxfId="2">
-      <calculatedColumnFormula>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
+    <tableColumn id="10" name="Day Total" dataDxfId="4">
+      <calculatedColumnFormula>TEXT([Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="PRJLST" dataDxfId="1">
-      <calculatedColumnFormula>TaskTimings[PRJ]</calculatedColumnFormula>
+    <tableColumn id="16" name="PRJLST" dataDxfId="3">
+      <calculatedColumnFormula>[PRJ]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="TSKLST" dataDxfId="0">
-      <calculatedColumnFormula>TaskTimings[TSK]</calculatedColumnFormula>
+    <tableColumn id="17" name="TSKLST" dataDxfId="2">
+      <calculatedColumnFormula>[TSK]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4503,7 +4851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4535,10 +4883,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4570,7 +4917,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4746,14 +5092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -4763,7 +5109,7 @@
     <col min="11" max="11" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <f>IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -4805,7 +5151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4826,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="D4" s="40">
         <f>IFERROR($D3+1,1)</f>
         <v>3</v>
@@ -4841,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="D5" s="40">
         <f>IFERROR($D4+1,1)</f>
         <v>4</v>
@@ -4872,24 +5218,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="88.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +5258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A7" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -4921,26 +5267,26 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B2,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TEEBPD-1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Theme Designing</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Theme Designing</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4949,26 +5295,26 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B3,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TEEBPD-2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Database Structure Designing</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Database Structure Designing</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4977,26 +5323,26 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B4,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TEEBPD-3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Appframe configuration</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5005,26 +5351,26 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B5,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TEEBPD-4</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Inhouse Testing</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Inhouse Testing</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5033,26 +5379,26 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B6,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TEEBPD-5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Client Demonstration</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Client Demonstration</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5061,26 +5407,26 @@
         <v>10</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B7,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TEEBPD-6</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Client Suggestion Implementation</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Client Suggestion Implementation</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <f t="shared" ref="A8:A13" si="1">IFERROR($A7+1,1)</f>
         <v>7</v>
@@ -5089,26 +5435,26 @@
         <v>48</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B8,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TKT-1</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="34" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G8" s="34" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5117,26 +5463,26 @@
         <v>48</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B9,ProjectTasks[[#This Row],[Project]])</f>
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TKT-2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="34" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/DB Designing</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G9" s="34" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>DB Designing</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5144,107 +5490,107 @@
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="43" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
-        <v>TKT-4</v>
+      <c r="C10" s="11" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>TKT-3</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Appframe configuration</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G10" s="34" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+    <row r="11" spans="1:7">
+      <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="47" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
+      <c r="C11" s="11" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>TKT-4</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="46" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+      <c r="E11" s="45" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="F11" s="46" t="str">
-        <f>ProjectTasks[Project]</f>
+      <c r="F11" s="45" t="str">
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
-      <c r="G11" s="46" t="str">
-        <f>ProjectTasks[Task]</f>
+      <c r="G11" s="45" t="str">
+        <f>[Task]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+    <row r="12" spans="1:7">
+      <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="47" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
-        <v>SDS-2</v>
+      <c r="C12" s="11" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>SDS-1</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="46" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+      <c r="E12" s="45" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="F12" s="46" t="str">
-        <f>ProjectTasks[Project]</f>
+      <c r="F12" s="45" t="str">
+        <f>[Project]</f>
         <v>SDS</v>
       </c>
-      <c r="G12" s="46" t="str">
-        <f>ProjectTasks[Task]</f>
+      <c r="G12" s="45" t="str">
+        <f>[Task]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+    <row r="13" spans="1:7">
+      <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="45" t="str">
-        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:$B13,ProjectTasks[[#This Row],[Project]])</f>
+      <c r="C13" s="44" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>SDS-2</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="46" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+      <c r="E13" s="45" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="F13" s="46" t="str">
-        <f>ProjectTasks[Project]</f>
+      <c r="F13" s="45" t="str">
+        <f>[Project]</f>
         <v>SDS</v>
       </c>
-      <c r="G13" s="46" t="str">
-        <f>ProjectTasks[Task]</f>
+      <c r="G13" s="45" t="str">
+        <f>[Task]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
@@ -5262,19 +5608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5282,7 +5628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A5" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5291,7 +5637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5300,7 +5646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5309,7 +5655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5327,14 +5673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" hidden="1" customWidth="1"/>
@@ -5348,7 +5694,7 @@
     <col min="16" max="17" width="9.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,30 +5747,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A8" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="10" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43430</v>
       </c>
-      <c r="E2" s="47">
-        <f>COUNTIF($D$1:$D7,TaskTimings[[#This Row],[EmployeeDate]])</f>
-        <v>3</v>
+      <c r="E2" s="46">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
-        <v>Aswathy/43430/3</v>
+        <v>Aswathy/43430/1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>55</v>
@@ -5442,417 +5788,417 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L2" s="2">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>90</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N2" s="2">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P2" s="10" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q2" s="10" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+    <row r="3" spans="1:17">
+      <c r="A3" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+      <c r="B3" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="C3" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+      <c r="C3" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="D3" s="45" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+      <c r="D3" s="44" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43430</v>
       </c>
-      <c r="E3" s="47">
-        <f>COUNTIF($D$1:$D8,TaskTimings[[#This Row],[EmployeeDate]])</f>
+      <c r="E3" s="46">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43430/1</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="48">
+        <v>43430</v>
+      </c>
+      <c r="J3" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L3" s="40">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>90</v>
+      </c>
+      <c r="M3" s="40" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="N3" s="40">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>330.99999999999994</v>
+      </c>
+      <c r="O3" s="40" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:31</v>
+      </c>
+      <c r="P3" s="44" t="str">
+        <f>[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q3" s="44" t="str">
+        <f>[TSK]</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="47">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F3" s="45" t="str">
+      <c r="B4" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C4" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Decryption</v>
+      </c>
+      <c r="D4" s="44" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Aswathy/43430</v>
+      </c>
+      <c r="E4" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43430/2</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="48">
+        <v>43430</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L4" s="40">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="M4" s="40" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>00:30</v>
+      </c>
+      <c r="N4" s="40">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>330</v>
+      </c>
+      <c r="O4" s="40" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:30</v>
+      </c>
+      <c r="P4" s="44" t="str">
+        <f>[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q4" s="44" t="str">
+        <f>[TSK]</f>
+        <v>Decryption</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C5" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Database Analysis from Old Project</v>
+      </c>
+      <c r="D5" s="44" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Shareena/43430</v>
+      </c>
+      <c r="E5" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43430/2</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="48">
+        <v>43430</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="L5" s="40">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>121.00000000000006</v>
+      </c>
+      <c r="M5" s="40" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>02:01</v>
+      </c>
+      <c r="N5" s="40">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>330.99999999999994</v>
+      </c>
+      <c r="O5" s="40" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:31</v>
+      </c>
+      <c r="P5" s="44" t="str">
+        <f>[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q5" s="44" t="str">
+        <f>[TSK]</f>
+        <v>Database Analysis from Old Project</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C6" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="D6" s="44" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Aswathy/43430</v>
+      </c>
+      <c r="E6" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43430/3</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="48">
+        <v>43430</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K6" s="50">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L6" s="40">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>89.999999999999915</v>
+      </c>
+      <c r="M6" s="40" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="N6" s="40">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>330</v>
+      </c>
+      <c r="O6" s="40" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:30</v>
+      </c>
+      <c r="P6" s="44" t="str">
+        <f>[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q6" s="44" t="str">
+        <f>[TSK]</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C7" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>DB Designing</v>
+      </c>
+      <c r="D7" s="44" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Shareena/43430</v>
+      </c>
+      <c r="E7" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="44" t="str">
         <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
         <v>Shareena/43430/3</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="42" t="s">
+      <c r="G7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I7" s="48">
         <v>43430</v>
       </c>
-      <c r="J3" s="50">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="K3" s="51">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L3" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>90</v>
-      </c>
-      <c r="M3" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>01:30</v>
-      </c>
-      <c r="N3" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+      <c r="J7" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="40">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="M7" s="40" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>02:00</v>
+      </c>
+      <c r="N7" s="40">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330.99999999999994</v>
       </c>
-      <c r="O3" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+      <c r="O7" s="40" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
-      <c r="P3" s="45" t="str">
-        <f>TaskTimings[PRJ]</f>
+      <c r="P7" s="44" t="str">
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
-      <c r="Q3" s="45" t="str">
-        <f>TaskTimings[TSK]</f>
-        <v>Discussion for ticketing modification</v>
+      <c r="Q7" s="44" t="str">
+        <f>[TSK]</f>
+        <v>DB Designing</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+    <row r="8" spans="1:17">
+      <c r="A8" s="47">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="C4" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Decryption</v>
-      </c>
-      <c r="D4" s="45" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+      <c r="C8" s="44" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="D8" s="44" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43430</v>
       </c>
-      <c r="E4" s="45">
-        <f>COUNTIF($D$1:$D9,TaskTimings[[#This Row],[EmployeeDate]])</f>
+      <c r="E8" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
         <v>4</v>
       </c>
-      <c r="F4" s="45" t="str">
+      <c r="F8" s="44" t="str">
         <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
         <v>Aswathy/43430/4</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="49">
-        <v>43430</v>
-      </c>
-      <c r="J4" s="50">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K4" s="51">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="L4" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="M4" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>00:30</v>
-      </c>
-      <c r="N4" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>330</v>
-      </c>
-      <c r="O4" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>05:30</v>
-      </c>
-      <c r="P4" s="45" t="str">
-        <f>TaskTimings[PRJ]</f>
-        <v>SDS</v>
-      </c>
-      <c r="Q4" s="45" t="str">
-        <f>TaskTimings[TSK]</f>
-        <v>Decryption</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>TKT</v>
-      </c>
-      <c r="C5" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Database Analysis from Old Project</v>
-      </c>
-      <c r="D5" s="45" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
-        <v>Shareena/43430</v>
-      </c>
-      <c r="E5" s="45">
-        <f>COUNTIF($D$1:$D10,TaskTimings[[#This Row],[EmployeeDate]])</f>
-        <v>3</v>
-      </c>
-      <c r="F5" s="45" t="str">
-        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
-        <v>Shareena/43430/3</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="49">
-        <v>43430</v>
-      </c>
-      <c r="J5" s="50">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="K5" s="51">
-        <v>0.55972222222222223</v>
-      </c>
-      <c r="L5" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>121.00000000000006</v>
-      </c>
-      <c r="M5" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>02:01</v>
-      </c>
-      <c r="N5" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>330.99999999999994</v>
-      </c>
-      <c r="O5" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>05:31</v>
-      </c>
-      <c r="P5" s="45" t="str">
-        <f>TaskTimings[PRJ]</f>
-        <v>TKT</v>
-      </c>
-      <c r="Q5" s="45" t="str">
-        <f>TaskTimings[TSK]</f>
-        <v>Database Analysis from Old Project</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>SDS</v>
-      </c>
-      <c r="C6" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Solving the issue of repeating icon in tray</v>
-      </c>
-      <c r="D6" s="45" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
-        <v>Aswathy/43430</v>
-      </c>
-      <c r="E6" s="45">
-        <f>COUNTIF($D$1:$D11,TaskTimings[[#This Row],[EmployeeDate]])</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="45" t="str">
-        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
-        <v>Aswathy/43430/4</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="49">
-        <v>43430</v>
-      </c>
-      <c r="J6" s="50">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="K6" s="51">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="L6" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>89.999999999999915</v>
-      </c>
-      <c r="M6" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>01:30</v>
-      </c>
-      <c r="N6" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>330</v>
-      </c>
-      <c r="O6" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>05:30</v>
-      </c>
-      <c r="P6" s="45" t="str">
-        <f>TaskTimings[PRJ]</f>
-        <v>SDS</v>
-      </c>
-      <c r="Q6" s="45" t="str">
-        <f>TaskTimings[TSK]</f>
-        <v>Solving the issue of repeating icon in tray</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>TKT</v>
-      </c>
-      <c r="C7" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>DB Designing</v>
-      </c>
-      <c r="D7" s="45" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
-        <v>Shareena/43430</v>
-      </c>
-      <c r="E7" s="45">
-        <f>COUNTIF($D$1:$D12,TaskTimings[[#This Row],[EmployeeDate]])</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="45" t="str">
-        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
-        <v>Shareena/43430/3</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="49">
-        <v>43430</v>
-      </c>
-      <c r="J7" s="50">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="K7" s="51">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L7" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>119.99999999999989</v>
-      </c>
-      <c r="M7" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>02:00</v>
-      </c>
-      <c r="N7" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>330.99999999999994</v>
-      </c>
-      <c r="O7" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>05:31</v>
-      </c>
-      <c r="P7" s="45" t="str">
-        <f>TaskTimings[PRJ]</f>
-        <v>TKT</v>
-      </c>
-      <c r="Q7" s="45" t="str">
-        <f>TaskTimings[TSK]</f>
-        <v>DB Designing</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>SDS</v>
-      </c>
-      <c r="C8" s="45" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Solving the issue of repeating icon in tray</v>
-      </c>
-      <c r="D8" s="45" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
-        <v>Aswathy/43430</v>
-      </c>
-      <c r="E8" s="45">
-        <f>COUNTIF($D$1:$D13,TaskTimings[[#This Row],[EmployeeDate]])</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="45" t="str">
-        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
-        <v>Aswathy/43430/4</v>
-      </c>
       <c r="G8" s="42" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="48">
         <v>43430</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="49">
         <v>0.625</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="50">
         <v>0.70833333333333337</v>
       </c>
       <c r="L8" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>120.00000000000006</v>
       </c>
       <c r="M8" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N8" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330</v>
       </c>
       <c r="O8" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
-      <c r="P8" s="45" t="str">
-        <f>TaskTimings[PRJ]</f>
+      <c r="P8" s="44" t="str">
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
-      <c r="Q8" s="45" t="str">
-        <f>TaskTimings[TSK]</f>
+      <c r="Q8" s="44" t="str">
+        <f>[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
@@ -5874,55 +6220,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+    <row r="1" spans="1:16">
+      <c r="A1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="J2" s="58" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="J2" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="str">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A4" s="53" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
-        <v>RTM</v>
-      </c>
-      <c r="B4" s="74"/>
+        <v>TKT</v>
+      </c>
+      <c r="B4" s="53"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -5945,84 +6291,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="54" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="J5" s="65" t="str">
+      <c r="H5" s="63"/>
+      <c r="J5" s="56" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="54" t="str">
+      <c r="K5" s="59" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="54" t="str">
+      <c r="L5" s="59" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="54" t="str">
+      <c r="M5" s="59" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="54" t="str">
+      <c r="N5" s="59" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="54" t="str">
+      <c r="O5" s="59" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="56" t="str">
+      <c r="P5" s="63" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="57"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="57"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="64"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="64"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="67">
+        <v>Database Analysis from Old Project</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="68"/>
+        <v>121.00000000000006</v>
+      </c>
+      <c r="H7" s="62"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6033,7 +6379,7 @@
       </c>
       <c r="L7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],L$5)</f>
-        <v>0</v>
+        <v>121.00000000000006</v>
       </c>
       <c r="M7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],M$5)</f>
@@ -6052,23 +6398,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="69" t="str">
+      <c r="B8" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="67">
+        <v>DB Designing</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="68"/>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="H8" s="62"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6079,7 +6425,7 @@
       </c>
       <c r="L8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],L$5)</f>
-        <v>0</v>
+        <v>119.99999999999989</v>
       </c>
       <c r="M8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],M$5)</f>
@@ -6098,23 +6444,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="str">
+      <c r="B9" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67">
+        <v>Appframe configuration</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="62"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6144,26 +6490,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="69" t="str">
+      <c r="B10" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="67">
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="68"/>
+        <v>180</v>
+      </c>
+      <c r="H10" s="62"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],K$5)</f>
@@ -6171,7 +6517,7 @@
       </c>
       <c r="L10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],L$5)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],M$5)</f>
@@ -6190,23 +6536,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="69" t="str">
+      <c r="B11" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="67">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6236,23 +6582,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="69" t="str">
+      <c r="B12" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="67">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="62"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6282,23 +6628,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="67">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="62"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6328,23 +6674,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="69" t="str">
+      <c r="B14" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="67">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="62"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6374,23 +6720,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="69" t="str">
+      <c r="B15" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="67">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="68"/>
+      <c r="H15" s="62"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6420,23 +6766,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="69" t="str">
+      <c r="B16" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="67">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="62"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6466,23 +6812,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="69" t="str">
+      <c r="B17" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="67">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="68"/>
+      <c r="H17" s="62"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6512,23 +6858,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="69" t="str">
+      <c r="B18" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="68"/>
+      <c r="H18" s="62"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6558,23 +6904,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="69" t="str">
+      <c r="B19" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="62"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6604,23 +6950,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="69" t="str">
+      <c r="B20" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="67">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="62"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6650,23 +6996,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1">
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="72" t="str">
+      <c r="B21" s="58" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="70">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="68"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6696,93 +7042,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="59" t="s">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:16">
+      <c r="D23" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="59">
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="70">
         <f>SUM(G7:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="J23" s="52">
+        <v>420.99999999999994</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="J23" s="65">
         <f>SUM(J7:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="52">
+        <v>90</v>
+      </c>
+      <c r="K23" s="65">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="52">
+        <v>330.99999999999994</v>
+      </c>
+      <c r="M23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="52">
+      <c r="N23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="52">
+      <c r="O23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="52">
+      <c r="P23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="64"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -6799,12 +7121,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -6818,26 +7164,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+      <selection activeCell="L10" sqref="L10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="F1" s="81" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="F1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="81"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -6856,22 +7202,22 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="F2" s="80">
-        <v>43423</v>
-      </c>
-      <c r="G2" s="80"/>
-      <c r="I2" s="97">
+    <row r="2" spans="1:28">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="F2" s="96">
+        <v>43430</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="I2" s="76">
         <f>SUM(I7:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="91" t="str">
+        <v>330</v>
+      </c>
+      <c r="J2" s="78" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>0:00</v>
+        <v>5:30</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -6885,15 +7231,15 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="92"/>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -6906,42 +7252,42 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="58" t="s">
+    <row r="4" spans="1:28">
+      <c r="K4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:28" ht="15.75" thickBot="1">
+      <c r="B5" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="88"/>
+      <c r="M6" s="86"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -6952,39 +7298,39 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="98">
         <f>$F$2</f>
-        <v>43423</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="83" t="str">
+        <v>43430</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+        <v>TKT/Discussion for ticketing modification</v>
+      </c>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="90">
+        <v>90</v>
+      </c>
+      <c r="I7" s="88">
         <f>SUM(H7:H10)</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="93" t="str">
+      <c r="L7" s="80" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="93"/>
+        <v>TKT</v>
+      </c>
+      <c r="M7" s="80"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -6997,67 +7343,67 @@
       <c r="T7" s="25"/>
       <c r="U7" s="14">
         <f>IF(COUNTIFS($D$6:$D7,D7)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="33" t="str">
         <f>IF($U7=0,"",VLOOKUP($D7,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W7" s="14" t="str">
+        <v>TKT</v>
+      </c>
+      <c r="W7" s="14">
         <f>IF($V7="","",COUNTIF($V7:$V$7,$V7))</f>
-        <v/>
-      </c>
-      <c r="X7" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="X7" s="14">
         <f>IF($W7=1,SUM($X$6:$X6)+1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y7" s="37" t="str">
         <f>IF($W7="","",$V7)</f>
-        <v/>
+        <v>TKT</v>
       </c>
       <c r="Z7" s="33" t="str">
         <f>IF($Y7="","",$Y7&amp;"/"&amp;COUNTIF($Y$7:$Y7,$Y7))</f>
-        <v/>
+        <v>TKT/1</v>
       </c>
       <c r="AA7" s="33" t="str">
         <f>IF($Z7="","",VLOOKUP($D7,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Discussion for ticketing modification</v>
       </c>
       <c r="AB7" s="33">
         <f>IF($AA7="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y7&amp;"/"&amp;$AA7))</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="84" t="str">
+      <c r="B8" s="57"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+        <v>SDS/Decryption</v>
+      </c>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="91"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="I8" s="78"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="93" t="str">
+      <c r="L8" s="80" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="93"/>
+        <v>SDS</v>
+      </c>
+      <c r="M8" s="80"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>0</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -7067,64 +7413,64 @@
       <c r="T8" s="25"/>
       <c r="U8" s="14">
         <f>IF(COUNTIFS($D$6:$D8,D8)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="33" t="str">
         <f>IF($U8=0,"",VLOOKUP($D8,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W8" s="14" t="str">
+        <v>SDS</v>
+      </c>
+      <c r="W8" s="14">
         <f>IF($V8="","",COUNTIF($V$7:$V8,$V8))</f>
-        <v/>
-      </c>
-      <c r="X8" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="X8" s="14">
         <f>IF($W8=1,SUM($X$6:$X7)+1,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Y8" s="37" t="str">
         <f t="shared" ref="Y8:Y30" si="1">IF($W8="","",$V8)</f>
-        <v/>
+        <v>SDS</v>
       </c>
       <c r="Z8" s="33" t="str">
         <f>IF($Y8="","",$Y8&amp;"/"&amp;COUNTIF($Y$7:$Y8,$Y8))</f>
-        <v/>
+        <v>SDS/1</v>
       </c>
       <c r="AA8" s="33" t="str">
         <f>IF($Z8="","",VLOOKUP($D8,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Decryption</v>
       </c>
       <c r="AB8" s="33">
         <f t="shared" ref="AB8:AB30" si="2">IF($AA8="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y8&amp;"/"&amp;$AA8))</f>
-        <v>0</v>
+        <v>30.000000000000053</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="84" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+        <v>SDS/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="91"/>
+        <v>89.999999999999915</v>
+      </c>
+      <c r="I9" s="78"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="93" t="str">
+      <c r="L9" s="80" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="93"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7137,15 +7483,15 @@
       <c r="T9" s="25"/>
       <c r="U9" s="14">
         <f>IF(COUNTIFS($D$6:$D9,D9)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="33" t="str">
         <f>IF($U9=0,"",VLOOKUP($D9,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W9" s="14" t="str">
+        <v>SDS</v>
+      </c>
+      <c r="W9" s="14">
         <f>IF($V9="","",COUNTIF($V$7:$V9,$V9))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="X9" s="14" t="str">
         <f>IF($W9=1,SUM($X$6:$X8)+1,"")</f>
@@ -7153,48 +7499,48 @@
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SDS</v>
       </c>
       <c r="Z9" s="33" t="str">
         <f>IF($Y9="","",$Y9&amp;"/"&amp;COUNTIF($Y$7:$Y9,$Y9))</f>
-        <v/>
+        <v>SDS/2</v>
       </c>
       <c r="AA9" s="33" t="str">
         <f>IF($Z9="","",VLOOKUP($D9,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="AB9" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>209.99999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="84" t="str">
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
+        <v>SDS/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="91"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="I10" s="78"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="93" t="str">
+      <c r="L10" s="80" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="93"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7238,27 +7584,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="90">
         <f>B7+1</f>
-        <v>43424</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="84" t="str">
+        <v>43431</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="78">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>0</v>
       </c>
@@ -7266,11 +7612,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="96" t="str">
+      <c r="L11" s="83" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="96"/>
+      <c r="M11" s="83"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7314,24 +7660,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="84" t="str">
+      <c r="B12" s="57"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="91"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -7376,31 +7722,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="84" t="str">
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="91"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -7440,29 +7786,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="84" t="str">
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="91"/>
+      <c r="I14" s="78"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -7502,41 +7848,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="90">
         <f>B11+1</f>
-        <v>43425</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="84" t="str">
+        <v>43432</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="78">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>0</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="94" t="s">
+      <c r="K15" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95" t="s">
+      <c r="L15" s="84"/>
+      <c r="M15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -7578,46 +7924,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="84" t="str">
+      <c r="B16" s="57"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="99" t="str">
+      <c r="K16" s="81" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
-        <v/>
-      </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="93" t="str">
+        <v>TKT</v>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="22" t="str">
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
-        <v/>
-      </c>
-      <c r="R16" s="91">
+        <v>90</v>
+      </c>
+      <c r="R16" s="78">
         <f>SUM(Q16:Q19)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
@@ -7654,41 +8000,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="84" t="str">
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="93" t="str">
+      <c r="K17" s="81"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="91"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -7724,41 +8070,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="84" t="str">
+      <c r="B18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="91"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="93" t="str">
+      <c r="K18" s="81"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="91"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -7794,47 +8140,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="90">
         <f>B15+1</f>
-        <v>43426</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="84" t="str">
+        <v>43433</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="78">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="93" t="str">
+      <c r="K19" s="81"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="91"/>
+      <c r="R19" s="78"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -7870,46 +8216,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="84" t="str">
+      <c r="B20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="91"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="99" t="str">
+      <c r="K20" s="81" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
-        <v/>
-      </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="93" t="str">
+        <v>SDS</v>
+      </c>
+      <c r="L20" s="61"/>
+      <c r="M20" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="22" t="str">
+        <v>Decryption</v>
+      </c>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
-        <v/>
-      </c>
-      <c r="R20" s="91">
+        <v>30.000000000000053</v>
+      </c>
+      <c r="R20" s="78">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>0</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -7946,41 +8292,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="84" t="str">
+      <c r="B21" s="57"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="91"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="99"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="93" t="str">
+      <c r="K21" s="81"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="22" t="str">
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v/>
-      </c>
-      <c r="R21" s="91"/>
+        <v>209.99999999999997</v>
+      </c>
+      <c r="R21" s="78"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -8016,41 +8362,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="84" t="str">
+      <c r="B22" s="57"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="91"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="99"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="93" t="str">
+      <c r="K22" s="81"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="91"/>
+      <c r="R22" s="78"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -8086,47 +8432,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="90">
         <f>B19+1</f>
-        <v>43427</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="84" t="str">
+        <v>43434</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="91">
+      <c r="I23" s="78">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="93" t="str">
+      <c r="K23" s="81"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="91"/>
+      <c r="R23" s="78"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -8162,44 +8508,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="84" t="str">
+      <c r="B24" s="57"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="91"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="99" t="str">
+      <c r="K24" s="81" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="93" t="str">
+      <c r="L24" s="61"/>
+      <c r="M24" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="91">
+      <c r="R24" s="78">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -8238,41 +8584,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="84" t="str">
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="91"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="93" t="str">
+      <c r="K25" s="81"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="91"/>
+      <c r="R25" s="78"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -8308,41 +8654,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="84" t="str">
+      <c r="B26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="91"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="99"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="93" t="str">
+      <c r="K26" s="81"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="91"/>
+      <c r="R26" s="78"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -8378,47 +8724,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="90">
         <f>B23+1</f>
-        <v>43428</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="84" t="str">
+        <v>43435</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="78">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="93" t="str">
+      <c r="K27" s="81"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="91"/>
+      <c r="R27" s="78"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -8454,44 +8800,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="84" t="str">
+      <c r="B28" s="57"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="91"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="99" t="str">
+      <c r="K28" s="81" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="93" t="str">
+      <c r="L28" s="61"/>
+      <c r="M28" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="91">
+      <c r="R28" s="78">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -8530,41 +8876,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="84" t="str">
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="91"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="99"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="93" t="str">
+      <c r="K29" s="81"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="91"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -8600,38 +8946,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="89" t="str">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1">
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="92"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="93" t="str">
+      <c r="K30" s="81"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="91"/>
+      <c r="R30" s="78"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -8665,109 +9011,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="93" t="str">
+      <c r="K31" s="81"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="91"/>
+      <c r="R31" s="78"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="99" t="str">
+      <c r="K32" s="81" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="67"/>
-      <c r="M32" s="93" t="str">
+      <c r="L32" s="61"/>
+      <c r="M32" s="80" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="91">
+      <c r="R32" s="78">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:18">
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="93" t="str">
+      <c r="K33" s="81"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="80" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="91"/>
+      <c r="R33" s="78"/>
     </row>
-    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:18">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="99"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="93" t="str">
+      <c r="K34" s="81"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="80" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="91"/>
+      <c r="R34" s="78"/>
     </row>
-    <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:18" ht="15.75" thickBot="1">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="100"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="96" t="str">
+      <c r="K35" s="82"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="83" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="92"/>
+      <c r="R35" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -8784,72 +9196,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -705,29 +705,11 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,28 +717,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,56 +744,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -852,49 +801,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1050,6 +1012,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1293,6 +1274,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1787,14 +1787,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="68763648"/>
-        <c:axId val="68765184"/>
+        <c:axId val="64439424"/>
+        <c:axId val="64440960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68763648"/>
+        <c:axId val="64439424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,14 +1811,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68765184"/>
+        <c:crossAx val="64440960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68765184"/>
+        <c:axId val="64440960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68763648"/>
+        <c:crossAx val="64439424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,7 +1855,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2485,14 +2484,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="70266880"/>
-        <c:axId val="70268416"/>
+        <c:axId val="65807488"/>
+        <c:axId val="65809024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70266880"/>
+        <c:axId val="65807488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,14 +2507,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70268416"/>
+        <c:crossAx val="65809024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70268416"/>
+        <c:axId val="65809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,14 +2532,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70266880"/>
+        <c:crossAx val="65807488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2558,7 +2555,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2748,7 +2745,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2779,7 +2776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3402,12 +3398,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="70433408"/>
-        <c:axId val="70328704"/>
+        <c:axId val="66342912"/>
+        <c:axId val="66344448"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="70433408"/>
+        <c:axId val="66342912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,14 +3420,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70328704"/>
+        <c:crossAx val="66344448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70328704"/>
+        <c:axId val="66344448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,14 +3446,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70433408"/>
+        <c:crossAx val="66342912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3475,7 +3469,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3501,7 +3495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -3510,9 +3503,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.212399312154947E-2"/>
+          <c:x val="2.2123993121549473E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816803"/>
+          <c:w val="0.70026343258816814"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3721,7 +3714,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3738,7 +3730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3764,7 +3756,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3851,7 +3842,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3868,7 +3858,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3898,7 +3888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4198,11 +4187,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="70499712"/>
-        <c:axId val="70509696"/>
+        <c:axId val="66470656"/>
+        <c:axId val="66472192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70499712"/>
+        <c:axId val="66470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,14 +4208,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70509696"/>
+        <c:crossAx val="66472192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70509696"/>
+        <c:axId val="66472192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70499712"/>
+        <c:crossAx val="66470656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4254,7 +4243,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4285,7 +4274,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4376,14 +4364,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="70555136"/>
-        <c:axId val="70556672"/>
+        <c:axId val="66509440"/>
+        <c:axId val="66511232"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="70555136"/>
+        <c:axId val="66509440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4401,14 +4388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70556672"/>
+        <c:crossAx val="66511232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70556672"/>
+        <c:axId val="66511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,7 +4414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70555136"/>
+        <c:crossAx val="66509440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4437,7 +4424,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4727,17 +4714,17 @@
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Project" dataDxfId="28"/>
-    <tableColumn id="9" name="PRJTSKSEQ" dataDxfId="1">
+    <tableColumn id="9" name="PRJTSKSEQ" dataDxfId="27">
       <calculatedColumnFormula>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Task" dataDxfId="27"/>
-    <tableColumn id="4" name="TaskProjectCode" dataDxfId="26">
+    <tableColumn id="3" name="Task" dataDxfId="26"/>
+    <tableColumn id="4" name="TaskProjectCode" dataDxfId="25">
       <calculatedColumnFormula>CONCATENATE([Project],"/",[Task])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PRJ" dataDxfId="25">
+    <tableColumn id="5" name="PRJ" dataDxfId="24">
       <calculatedColumnFormula>[Project]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="TSK" dataDxfId="24">
+    <tableColumn id="6" name="TSK" dataDxfId="23">
       <calculatedColumnFormula>[Task]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4746,61 +4733,61 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Employees" displayName="Employees" ref="A1:B5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Employees" displayName="Employees" ref="A1:B5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="No" dataDxfId="21">
+    <tableColumn id="1" name="No" dataDxfId="20">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q8"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="No" dataDxfId="17">
+    <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="PRJ" dataDxfId="16">
+    <tableColumn id="11" name="PRJ" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="TSK" dataDxfId="15">
+    <tableColumn id="12" name="TSK" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="EmployeeDate" dataDxfId="14">
+    <tableColumn id="13" name="EmployeeDate" dataDxfId="13">
       <calculatedColumnFormula>[Employee]&amp;"/"&amp;[Date]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="0">
+    <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="EmployeeDateSeqCode" dataDxfId="13">
+    <tableColumn id="15" name="EmployeeDateSeqCode" dataDxfId="11">
       <calculatedColumnFormula>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Task" dataDxfId="12"/>
-    <tableColumn id="3" name="Employee" dataDxfId="11"/>
-    <tableColumn id="4" name="Date" dataDxfId="10"/>
-    <tableColumn id="5" name="Start Time" dataDxfId="9"/>
-    <tableColumn id="6" name="End Time" dataDxfId="8"/>
-    <tableColumn id="7" name="Total Minutes" dataDxfId="7">
+    <tableColumn id="2" name="Task" dataDxfId="10"/>
+    <tableColumn id="3" name="Employee" dataDxfId="9"/>
+    <tableColumn id="4" name="Date" dataDxfId="8"/>
+    <tableColumn id="5" name="Start Time" dataDxfId="7"/>
+    <tableColumn id="6" name="End Time" dataDxfId="6"/>
+    <tableColumn id="7" name="Total Minutes" dataDxfId="5">
       <calculatedColumnFormula>([End Time]-[Start Time])*1440</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Total" dataDxfId="6">
+    <tableColumn id="8" name="Total" dataDxfId="4">
       <calculatedColumnFormula>TEXT([End Time]-[Start Time],"HH:mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Day Total Minutes" dataDxfId="5">
+    <tableColumn id="9" name="Day Total Minutes" dataDxfId="3">
       <calculatedColumnFormula>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Day Total" dataDxfId="4">
+    <tableColumn id="10" name="Day Total" dataDxfId="2">
       <calculatedColumnFormula>TEXT([Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="PRJLST" dataDxfId="3">
+    <tableColumn id="16" name="PRJLST" dataDxfId="1">
       <calculatedColumnFormula>[PRJ]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="TSKLST" dataDxfId="2">
+    <tableColumn id="17" name="TSKLST" dataDxfId="0">
       <calculatedColumnFormula>[TSK]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5221,15 +5208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="88.28515625" hidden="1" customWidth="1"/>
@@ -5676,7 +5663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6233,42 +6220,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="J2" s="69" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="J2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="53" t="str">
+      <c r="A4" s="73" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="73"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -6292,83 +6279,83 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="59" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="J5" s="56" t="str">
+      <c r="H5" s="55"/>
+      <c r="J5" s="64" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="59" t="str">
+      <c r="K5" s="53" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="59" t="str">
+      <c r="L5" s="53" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="59" t="str">
+      <c r="M5" s="53" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="59" t="str">
+      <c r="N5" s="53" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="59" t="str">
+      <c r="O5" s="53" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="63" t="str">
+      <c r="P5" s="55" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="57"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="64"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="56"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="str">
+      <c r="B7" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="67"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6402,19 +6389,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="52" t="str">
+      <c r="B8" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="67"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6448,19 +6435,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="str">
+      <c r="B9" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="67"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6494,19 +6481,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="str">
+      <c r="B10" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>180</v>
       </c>
-      <c r="H10" s="62"/>
+      <c r="H10" s="67"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -6540,19 +6527,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="str">
+      <c r="B11" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="61">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="67"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6586,19 +6573,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="str">
+      <c r="B12" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="61">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="67"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6632,19 +6619,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="str">
+      <c r="B13" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="61">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="67"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6678,19 +6665,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="52" t="str">
+      <c r="B14" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="61">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="62"/>
+      <c r="H14" s="67"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6724,19 +6711,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="52" t="str">
+      <c r="B15" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="61">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="67"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6770,19 +6757,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="52" t="str">
+      <c r="B16" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="61">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="67"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6816,19 +6803,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="52" t="str">
+      <c r="B17" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="61">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="67"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6862,19 +6849,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="52" t="str">
+      <c r="B18" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="61">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="67"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6908,19 +6895,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="52" t="str">
+      <c r="B19" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="61">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="62"/>
+      <c r="H19" s="67"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6954,19 +6941,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="52" t="str">
+      <c r="B20" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="61">
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="62"/>
+      <c r="H20" s="67"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7000,19 +6987,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="58" t="str">
+      <c r="B21" s="71" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="67">
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="70"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7044,67 +7031,91 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:16">
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="70">
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="58">
         <f>SUM(G7:H21)</f>
         <v>420.99999999999994</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="J23" s="65">
+      <c r="H23" s="60"/>
+      <c r="J23" s="51">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="51">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="65">
+      <c r="L23" s="51">
         <f t="shared" si="0"/>
         <v>330.99999999999994</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="65">
+      <c r="N23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="65">
+      <c r="O23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="65">
+      <c r="P23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="75"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="63"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -7121,36 +7132,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -7174,16 +7161,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="F1" s="97" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="F1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -7203,19 +7190,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="F2" s="96">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="79">
         <v>43430</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="I2" s="76">
+      <c r="G2" s="79"/>
+      <c r="I2" s="96">
         <f>SUM(I7:I30)</f>
         <v>330</v>
       </c>
-      <c r="J2" s="78" t="str">
+      <c r="J2" s="90" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>5:30</v>
       </c>
@@ -7232,14 +7219,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="79"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="91"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -7253,41 +7240,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -7302,23 +7289,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="81">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="99" t="str">
+      <c r="C7" s="53"/>
+      <c r="D7" s="82" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="89">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -7326,11 +7313,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="80" t="str">
+      <c r="L7" s="92" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="80"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -7378,29 +7365,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="89" t="str">
+      <c r="B8" s="65"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="80" t="str">
+      <c r="L8" s="92" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="92"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>240.00000000000003</v>
@@ -7448,29 +7435,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="89" t="str">
+      <c r="B9" s="65"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="80" t="str">
+      <c r="L9" s="92" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="80"/>
+      <c r="M9" s="92"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7518,29 +7505,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="89" t="str">
+      <c r="B10" s="65"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="80" t="str">
+      <c r="L10" s="92" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="92"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7588,23 +7575,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="84">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="89" t="str">
+      <c r="C11" s="54"/>
+      <c r="D11" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="90">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>0</v>
       </c>
@@ -7612,11 +7599,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="83" t="str">
+      <c r="L11" s="95" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="95"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7664,20 +7651,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="89" t="str">
+      <c r="B12" s="65"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -7726,27 +7713,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="89" t="str">
+      <c r="B13" s="65"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -7790,25 +7777,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="89" t="str">
+      <c r="B14" s="65"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -7852,37 +7839,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="84">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="89" t="str">
+      <c r="C15" s="54"/>
+      <c r="D15" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="90">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>0</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84" t="s">
+      <c r="L15" s="94"/>
+      <c r="M15" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -7928,40 +7915,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="89" t="str">
+      <c r="B16" s="65"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="81" t="str">
+      <c r="K16" s="98" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="80" t="str">
+      <c r="L16" s="66"/>
+      <c r="M16" s="92" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="90">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -8004,37 +7991,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="89" t="str">
+      <c r="B17" s="65"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="80" t="str">
+      <c r="K17" s="98"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="92" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="78"/>
+      <c r="R17" s="90"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -8074,37 +8061,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="89" t="str">
+      <c r="B18" s="65"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="80" t="str">
+      <c r="K18" s="98"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="92" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="90"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -8144,43 +8131,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="84">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="89" t="str">
+      <c r="C19" s="54"/>
+      <c r="D19" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="90">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="80" t="str">
+      <c r="K19" s="98"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="92" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="78"/>
+      <c r="R19" s="90"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -8220,40 +8207,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="89" t="str">
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="81" t="str">
+      <c r="K20" s="98" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="80" t="str">
+      <c r="L20" s="66"/>
+      <c r="M20" s="92" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R20" s="78">
+      <c r="R20" s="90">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>240.00000000000003</v>
       </c>
@@ -8296,37 +8283,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="89" t="str">
+      <c r="B21" s="65"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="78"/>
+      <c r="I21" s="90"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="80" t="str">
+      <c r="K21" s="98"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="92" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>209.99999999999997</v>
       </c>
-      <c r="R21" s="78"/>
+      <c r="R21" s="90"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -8366,37 +8353,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="89" t="str">
+      <c r="B22" s="65"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="80" t="str">
+      <c r="K22" s="98"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="92" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="78"/>
+      <c r="R22" s="90"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -8436,43 +8423,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="84">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="89" t="str">
+      <c r="C23" s="54"/>
+      <c r="D23" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="90">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="80" t="str">
+      <c r="K23" s="98"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="92" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="78"/>
+      <c r="R23" s="90"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -8512,40 +8499,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="89" t="str">
+      <c r="B24" s="65"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="81" t="str">
+      <c r="K24" s="98" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="80" t="str">
+      <c r="L24" s="66"/>
+      <c r="M24" s="92" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="78">
+      <c r="R24" s="90">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -8588,37 +8575,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="89" t="str">
+      <c r="B25" s="65"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="78"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="80" t="str">
+      <c r="K25" s="98"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="92" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="78"/>
+      <c r="R25" s="90"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -8658,37 +8645,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="89" t="str">
+      <c r="B26" s="65"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="78"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="80" t="str">
+      <c r="K26" s="98"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="92" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="78"/>
+      <c r="R26" s="90"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -8728,43 +8715,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="84">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="89" t="str">
+      <c r="C27" s="54"/>
+      <c r="D27" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="90">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="80" t="str">
+      <c r="K27" s="98"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="92" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="78"/>
+      <c r="R27" s="90"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -8804,40 +8791,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="89" t="str">
+      <c r="B28" s="65"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="78"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="81" t="str">
+      <c r="K28" s="98" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="80" t="str">
+      <c r="L28" s="66"/>
+      <c r="M28" s="92" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="90">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -8880,37 +8867,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="89" t="str">
+      <c r="B29" s="65"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="78"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="80" t="str">
+      <c r="K29" s="98"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="92" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="78"/>
+      <c r="R29" s="90"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -8947,37 +8934,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="87" t="str">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="79"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="81"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="80" t="str">
+      <c r="K30" s="98"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="92" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="78"/>
+      <c r="R30" s="90"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -9015,42 +9002,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="81"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="80" t="str">
+      <c r="K31" s="98"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="92" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="78"/>
+      <c r="R31" s="90"/>
     </row>
     <row r="32" spans="1:28">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="81" t="str">
+      <c r="K32" s="98" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="80" t="str">
+      <c r="L32" s="66"/>
+      <c r="M32" s="92" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="78">
+      <c r="R32" s="90">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -9059,61 +9046,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="80" t="str">
+      <c r="K33" s="98"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="92" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="78"/>
+      <c r="R33" s="90"/>
     </row>
     <row r="34" spans="10:18">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="80" t="str">
+      <c r="K34" s="98"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="92" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="78"/>
+      <c r="R34" s="90"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="82"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="83" t="str">
+      <c r="K35" s="99"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="79"/>
+      <c r="R35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -9130,72 +9183,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -705,11 +705,29 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,10 +735,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,41 +780,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -800,57 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,11 +1789,11 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="64439424"/>
-        <c:axId val="64440960"/>
+        <c:axId val="61676544"/>
+        <c:axId val="61686528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64439424"/>
+        <c:axId val="61676544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,14 +1811,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64440960"/>
+        <c:crossAx val="61686528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64440960"/>
+        <c:axId val="61686528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64439424"/>
+        <c:crossAx val="61676544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,7 +1855,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2486,11 +2486,11 @@
         </c:ser>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="65807488"/>
-        <c:axId val="65809024"/>
+        <c:axId val="61727104"/>
+        <c:axId val="61728640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65807488"/>
+        <c:axId val="61727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,14 +2507,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65809024"/>
+        <c:crossAx val="61728640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65809024"/>
+        <c:axId val="61728640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,13 +2532,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65807488"/>
+        <c:crossAx val="61727104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2555,7 +2556,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2745,7 +2746,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2776,6 +2777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3398,11 +3400,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66342912"/>
-        <c:axId val="66344448"/>
+        <c:axId val="64639360"/>
+        <c:axId val="64640896"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="66342912"/>
+        <c:axId val="64639360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,14 +3422,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66344448"/>
+        <c:crossAx val="64640896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66344448"/>
+        <c:axId val="64640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,13 +3448,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66342912"/>
+        <c:crossAx val="64639360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3469,7 +3472,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3495,6 +3498,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -3503,9 +3507,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2123993121549473E-2"/>
+          <c:x val="2.212399312154948E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816814"/>
+          <c:w val="0.70026343258816826"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3714,6 +3718,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3730,7 +3735,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3858,7 +3863,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4187,11 +4192,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="66470656"/>
-        <c:axId val="66472192"/>
+        <c:axId val="66282624"/>
+        <c:axId val="66284160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66470656"/>
+        <c:axId val="66282624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,14 +4213,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66472192"/>
+        <c:crossAx val="66284160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66472192"/>
+        <c:axId val="66284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66470656"/>
+        <c:crossAx val="66282624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4243,7 +4248,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4366,11 +4371,11 @@
         </c:ser>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="66509440"/>
-        <c:axId val="66511232"/>
+        <c:axId val="66595840"/>
+        <c:axId val="66609920"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="66509440"/>
+        <c:axId val="66595840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4388,14 +4393,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66511232"/>
+        <c:crossAx val="66609920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66511232"/>
+        <c:axId val="66609920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66509440"/>
+        <c:crossAx val="66595840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4424,7 +4429,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5208,7 +5213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5663,7 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6220,42 +6225,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="J2" s="57" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="J2" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="73" t="str">
+      <c r="A4" s="53" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="53"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -6279,83 +6284,83 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="53" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="J5" s="64" t="str">
+      <c r="H5" s="63"/>
+      <c r="J5" s="56" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="53" t="str">
+      <c r="K5" s="59" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="53" t="str">
+      <c r="L5" s="59" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="53" t="str">
+      <c r="M5" s="59" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="53" t="str">
+      <c r="N5" s="59" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="53" t="str">
+      <c r="O5" s="59" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="55" t="str">
+      <c r="P5" s="63" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="65"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="56"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="56"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="64"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="H7" s="67"/>
+      <c r="H7" s="62"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6389,19 +6394,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="str">
+      <c r="B8" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="66">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="62"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6435,19 +6440,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="str">
+      <c r="B9" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="66">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="62"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6481,19 +6486,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="str">
+      <c r="B10" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>180</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="62"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -6527,19 +6532,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="68" t="str">
+      <c r="B11" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="66">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6573,19 +6578,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="68" t="str">
+      <c r="B12" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="66">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="62"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6619,19 +6624,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="62"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6665,19 +6670,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="str">
+      <c r="B14" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="66">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="62"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6711,19 +6716,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="str">
+      <c r="B15" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="66">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="62"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6757,19 +6762,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="68" t="str">
+      <c r="B16" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="62"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6803,19 +6808,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="68" t="str">
+      <c r="B17" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="66">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="62"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6849,19 +6854,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="68" t="str">
+      <c r="B18" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="66">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="62"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6895,19 +6900,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="68" t="str">
+      <c r="B19" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="66">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="62"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6941,19 +6946,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="68" t="str">
+      <c r="B20" s="52" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="66">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="61">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="62"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6987,19 +6992,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="71" t="str">
+      <c r="B21" s="58" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="69">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="67">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="70"/>
+      <c r="H21" s="68"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7031,91 +7036,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:16">
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="58">
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="70">
         <f>SUM(G7:H21)</f>
         <v>420.99999999999994</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="J23" s="51">
+      <c r="H23" s="72"/>
+      <c r="J23" s="65">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="65">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="65">
         <f t="shared" si="0"/>
         <v>330.99999999999994</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="51">
+      <c r="N23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="63"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -7132,12 +7113,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -7161,16 +7166,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="F1" s="80" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="F1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="80"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -7190,19 +7195,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="79">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="F2" s="96">
         <v>43430</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="I2" s="96">
+      <c r="G2" s="96"/>
+      <c r="I2" s="76">
         <f>SUM(I7:I30)</f>
         <v>330</v>
       </c>
-      <c r="J2" s="90" t="str">
+      <c r="J2" s="78" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>5:30</v>
       </c>
@@ -7219,14 +7224,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="91"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -7240,41 +7245,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="87"/>
+      <c r="M6" s="86"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -7289,23 +7294,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="98">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="82" t="str">
+      <c r="C7" s="59"/>
+      <c r="D7" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="88">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -7313,11 +7318,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="80" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -7365,29 +7370,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="83" t="str">
+      <c r="B8" s="57"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="92" t="str">
+      <c r="L8" s="80" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>240.00000000000003</v>
@@ -7435,29 +7440,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="83" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="92" t="str">
+      <c r="L9" s="80" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7505,29 +7510,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="83" t="str">
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="92" t="str">
+      <c r="L10" s="80" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="92"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7575,23 +7580,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="90">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="83" t="str">
+      <c r="C11" s="60"/>
+      <c r="D11" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="78">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>0</v>
       </c>
@@ -7599,11 +7604,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="95" t="str">
+      <c r="L11" s="83" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="95"/>
+      <c r="M11" s="83"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7651,20 +7656,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="83" t="str">
+      <c r="B12" s="57"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -7713,27 +7718,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="83" t="str">
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -7777,25 +7782,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="83" t="str">
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="78"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -7839,37 +7844,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="90">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="83" t="str">
+      <c r="C15" s="60"/>
+      <c r="D15" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="78">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>0</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94" t="s">
+      <c r="L15" s="84"/>
+      <c r="M15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -7915,40 +7920,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="83" t="str">
+      <c r="B16" s="57"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="98" t="str">
+      <c r="K16" s="81" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="66"/>
-      <c r="M16" s="92" t="str">
+      <c r="L16" s="61"/>
+      <c r="M16" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="90">
+      <c r="R16" s="78">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -7991,37 +7996,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="83" t="str">
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="92" t="str">
+      <c r="K17" s="81"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="90"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -8061,37 +8066,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="83" t="str">
+      <c r="B18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="92" t="str">
+      <c r="K18" s="81"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="90"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -8131,43 +8136,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="90">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="83" t="str">
+      <c r="C19" s="60"/>
+      <c r="D19" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="78">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="92" t="str">
+      <c r="K19" s="81"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="80" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="90"/>
+      <c r="R19" s="78"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -8207,40 +8212,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="83" t="str">
+      <c r="B20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="90"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="98" t="str">
+      <c r="K20" s="81" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="92" t="str">
+      <c r="L20" s="61"/>
+      <c r="M20" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R20" s="90">
+      <c r="R20" s="78">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>240.00000000000003</v>
       </c>
@@ -8283,37 +8288,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="83" t="str">
+      <c r="B21" s="57"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="92" t="str">
+      <c r="K21" s="81"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>209.99999999999997</v>
       </c>
-      <c r="R21" s="90"/>
+      <c r="R21" s="78"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -8353,37 +8358,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="83" t="str">
+      <c r="B22" s="57"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="90"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="98"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="92" t="str">
+      <c r="K22" s="81"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="90"/>
+      <c r="R22" s="78"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -8423,43 +8428,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="90">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="83" t="str">
+      <c r="C23" s="60"/>
+      <c r="D23" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="78">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="92" t="str">
+      <c r="K23" s="81"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="80" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="90"/>
+      <c r="R23" s="78"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -8499,40 +8504,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="83" t="str">
+      <c r="B24" s="57"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="90"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="98" t="str">
+      <c r="K24" s="81" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="92" t="str">
+      <c r="L24" s="61"/>
+      <c r="M24" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="90">
+      <c r="R24" s="78">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -8575,37 +8580,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="83" t="str">
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="90"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="92" t="str">
+      <c r="K25" s="81"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="90"/>
+      <c r="R25" s="78"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -8645,37 +8650,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="83" t="str">
+      <c r="B26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="90"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="92" t="str">
+      <c r="K26" s="81"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="90"/>
+      <c r="R26" s="78"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -8715,43 +8720,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="90">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="83" t="str">
+      <c r="C27" s="60"/>
+      <c r="D27" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="78">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="98"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="92" t="str">
+      <c r="K27" s="81"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="80" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="90"/>
+      <c r="R27" s="78"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -8791,40 +8796,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="83" t="str">
+      <c r="B28" s="57"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="90"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="98" t="str">
+      <c r="K28" s="81" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="92" t="str">
+      <c r="L28" s="61"/>
+      <c r="M28" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="90">
+      <c r="R28" s="78">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -8867,37 +8872,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="83" t="str">
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="90"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="98"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="92" t="str">
+      <c r="K29" s="81"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="90"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -8934,37 +8939,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="88" t="str">
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="91"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="92" t="str">
+      <c r="K30" s="81"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="90"/>
+      <c r="R30" s="78"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -9002,42 +9007,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="98"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="92" t="str">
+      <c r="K31" s="81"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="80" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="90"/>
+      <c r="R31" s="78"/>
     </row>
     <row r="32" spans="1:28">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="98" t="str">
+      <c r="K32" s="81" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="66"/>
-      <c r="M32" s="92" t="str">
+      <c r="L32" s="61"/>
+      <c r="M32" s="80" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="90">
+      <c r="R32" s="78">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -9046,61 +9051,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="92" t="str">
+      <c r="K33" s="81"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="80" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="90"/>
+      <c r="R33" s="78"/>
     </row>
     <row r="34" spans="10:18">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="98"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="92" t="str">
+      <c r="K34" s="81"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="80" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="90"/>
+      <c r="R34" s="78"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="95" t="str">
+      <c r="K35" s="82"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="83" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="91"/>
+      <c r="R35" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -9117,72 +9188,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">
